--- a/GradeDistributionsDB/Fall2013/Output/Fall2013 GE.xlsx
+++ b/GradeDistributionsDB/Fall2013/Output/Fall2013 GE.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="561">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>ATMO-201</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>2.27%</t>
   </si>
   <si>
+    <t>2.22%</t>
+  </si>
+  <si>
     <t>LEMMON M</t>
   </si>
   <si>
@@ -94,6 +100,9 @@
     <t>1.80%</t>
   </si>
   <si>
+    <t>8.26%</t>
+  </si>
+  <si>
     <t>SZUNYOGH I</t>
   </si>
   <si>
@@ -112,6 +121,9 @@
     <t>3.13%</t>
   </si>
   <si>
+    <t>8.57%</t>
+  </si>
+  <si>
     <t>ATMO-202</t>
   </si>
   <si>
@@ -130,6 +142,9 @@
     <t>2.87%</t>
   </si>
   <si>
+    <t>3.87%</t>
+  </si>
+  <si>
     <t>ATMO-203</t>
   </si>
   <si>
@@ -157,6 +172,9 @@
     <t>5.88%</t>
   </si>
   <si>
+    <t>2.86%</t>
+  </si>
+  <si>
     <t>ATMO-321</t>
   </si>
   <si>
@@ -229,6 +247,9 @@
     <t>13.89%</t>
   </si>
   <si>
+    <t>16.28%</t>
+  </si>
+  <si>
     <t>ATMO-443</t>
   </si>
   <si>
@@ -349,6 +370,9 @@
     <t>1.90%</t>
   </si>
   <si>
+    <t>2.33%</t>
+  </si>
+  <si>
     <t>GEOG-202</t>
   </si>
   <si>
@@ -370,6 +394,9 @@
     <t>2.91%</t>
   </si>
   <si>
+    <t>3.47%</t>
+  </si>
+  <si>
     <t>PATZEWITSCH W</t>
   </si>
   <si>
@@ -388,6 +415,9 @@
     <t>0.53%</t>
   </si>
   <si>
+    <t>3.40%</t>
+  </si>
+  <si>
     <t>LEMMONS K</t>
   </si>
   <si>
@@ -415,6 +445,9 @@
     <t>0.76%</t>
   </si>
   <si>
+    <t>4.36%</t>
+  </si>
+  <si>
     <t>GEOG-203</t>
   </si>
   <si>
@@ -451,6 +484,9 @@
     <t>2.67%</t>
   </si>
   <si>
+    <t>1.96%</t>
+  </si>
+  <si>
     <t>LAFON C</t>
   </si>
   <si>
@@ -469,6 +505,9 @@
     <t>1.05%</t>
   </si>
   <si>
+    <t>3.39%</t>
+  </si>
+  <si>
     <t>CAIRNS D</t>
   </si>
   <si>
@@ -487,6 +526,9 @@
     <t>3.23%</t>
   </si>
   <si>
+    <t>4.62%</t>
+  </si>
+  <si>
     <t>GUNERALP I</t>
   </si>
   <si>
@@ -502,6 +544,9 @@
     <t>4.79%</t>
   </si>
   <si>
+    <t>2.01%</t>
+  </si>
+  <si>
     <t>GEOG-213</t>
   </si>
   <si>
@@ -514,6 +559,9 @@
     <t>5.00%</t>
   </si>
   <si>
+    <t>4.76%</t>
+  </si>
+  <si>
     <t>GEOG-301</t>
   </si>
   <si>
@@ -532,6 +580,9 @@
     <t>0.71%</t>
   </si>
   <si>
+    <t>7.89%</t>
+  </si>
+  <si>
     <t>GEOG-304</t>
   </si>
   <si>
@@ -550,6 +601,9 @@
     <t>5.83%</t>
   </si>
   <si>
+    <t>0.96%</t>
+  </si>
+  <si>
     <t>GEOG-305</t>
   </si>
   <si>
@@ -568,6 +622,9 @@
     <t>0.47%</t>
   </si>
   <si>
+    <t>4.04%</t>
+  </si>
+  <si>
     <t>GEOG-306</t>
   </si>
   <si>
@@ -637,6 +694,9 @@
     <t>6.12%</t>
   </si>
   <si>
+    <t>5.77%</t>
+  </si>
+  <si>
     <t>GEOG-323</t>
   </si>
   <si>
@@ -649,6 +709,9 @@
     <t>2.13%</t>
   </si>
   <si>
+    <t>2.08%</t>
+  </si>
+  <si>
     <t>GEOG-330</t>
   </si>
   <si>
@@ -667,6 +730,9 @@
     <t>1.69%</t>
   </si>
   <si>
+    <t>7.81%</t>
+  </si>
+  <si>
     <t>GEOG-332</t>
   </si>
   <si>
@@ -679,6 +745,9 @@
     <t>19.35%</t>
   </si>
   <si>
+    <t>6.06%</t>
+  </si>
+  <si>
     <t>GEOG-335</t>
   </si>
   <si>
@@ -697,6 +766,9 @@
     <t>3.85%</t>
   </si>
   <si>
+    <t>3.70%</t>
+  </si>
+  <si>
     <t>GEOG-361</t>
   </si>
   <si>
@@ -712,6 +784,9 @@
     <t>11.54%</t>
   </si>
   <si>
+    <t>10.34%</t>
+  </si>
+  <si>
     <t>GEOG-380</t>
   </si>
   <si>
@@ -733,12 +808,18 @@
     <t>1.67%</t>
   </si>
   <si>
+    <t>9.09%</t>
+  </si>
+  <si>
     <t>GEOG-401</t>
   </si>
   <si>
     <t>11.11%</t>
   </si>
   <si>
+    <t>2.70%</t>
+  </si>
+  <si>
     <t>GEOG-404</t>
   </si>
   <si>
@@ -748,6 +829,9 @@
     <t>QUIRING S</t>
   </si>
   <si>
+    <t>6.25%</t>
+  </si>
+  <si>
     <t>GEOG-442</t>
   </si>
   <si>
@@ -844,9 +928,6 @@
     <t>90.91%</t>
   </si>
   <si>
-    <t>9.09%</t>
-  </si>
-  <si>
     <t>GEOL-101</t>
   </si>
   <si>
@@ -868,6 +949,9 @@
     <t>1.77%</t>
   </si>
   <si>
+    <t>2.16%</t>
+  </si>
+  <si>
     <t>YANCEY T</t>
   </si>
   <si>
@@ -883,6 +967,9 @@
     <t>1.74%</t>
   </si>
   <si>
+    <t>1.71%</t>
+  </si>
+  <si>
     <t>VAN B</t>
   </si>
   <si>
@@ -913,6 +1000,9 @@
     <t>3.81%</t>
   </si>
   <si>
+    <t>3.67%</t>
+  </si>
+  <si>
     <t>NEWMAN J</t>
   </si>
   <si>
@@ -931,6 +1021,9 @@
     <t>20.69%</t>
   </si>
   <si>
+    <t>0.85%</t>
+  </si>
+  <si>
     <t>MARCANTONIO F</t>
   </si>
   <si>
@@ -952,6 +1045,9 @@
     <t>49.12%</t>
   </si>
   <si>
+    <t>1.72%</t>
+  </si>
+  <si>
     <t>GEOL-104</t>
   </si>
   <si>
@@ -988,6 +1084,9 @@
     <t>3.73%</t>
   </si>
   <si>
+    <t>2.42%</t>
+  </si>
+  <si>
     <t>GEOL-106</t>
   </si>
   <si>
@@ -1027,6 +1126,9 @@
     <t>1.14%</t>
   </si>
   <si>
+    <t>3.30%</t>
+  </si>
+  <si>
     <t>GEOL-302</t>
   </si>
   <si>
@@ -1078,6 +1180,9 @@
     <t>8.70%</t>
   </si>
   <si>
+    <t>1.43%</t>
+  </si>
+  <si>
     <t>GEOL-306</t>
   </si>
   <si>
@@ -1114,9 +1219,6 @@
     <t>43.75%</t>
   </si>
   <si>
-    <t>6.25%</t>
-  </si>
-  <si>
     <t>GROSSMAN E</t>
   </si>
   <si>
@@ -1132,6 +1234,9 @@
     <t>CHESTER J</t>
   </si>
   <si>
+    <t>13.04%</t>
+  </si>
+  <si>
     <t>GEOL-320</t>
   </si>
   <si>
@@ -1165,6 +1270,9 @@
     <t>0.60%</t>
   </si>
   <si>
+    <t>1.75%</t>
+  </si>
+  <si>
     <t>GEOL-410</t>
   </si>
   <si>
@@ -1183,6 +1291,9 @@
     <t>GEOL-440</t>
   </si>
   <si>
+    <t>6.67%</t>
+  </si>
+  <si>
     <t>GEOL-491</t>
   </si>
   <si>
@@ -1384,9 +1495,6 @@
     <t>53.33%</t>
   </si>
   <si>
-    <t>6.67%</t>
-  </si>
-  <si>
     <t>GEOS-470</t>
   </si>
   <si>
@@ -1423,6 +1531,9 @@
     <t>4.91%</t>
   </si>
   <si>
+    <t>4.12%</t>
+  </si>
+  <si>
     <t>KUEHL J</t>
   </si>
   <si>
@@ -1438,6 +1549,9 @@
     <t>1.47%</t>
   </si>
   <si>
+    <t>4.23%</t>
+  </si>
+  <si>
     <t>SCHMIDT M</t>
   </si>
   <si>
@@ -1453,6 +1567,9 @@
     <t>1.85%</t>
   </si>
   <si>
+    <t>3.57%</t>
+  </si>
+  <si>
     <t>GARDNER W</t>
   </si>
   <si>
@@ -1468,6 +1585,9 @@
     <t>0.64%</t>
   </si>
   <si>
+    <t>5.99%</t>
+  </si>
+  <si>
     <t>WORMUTH J</t>
   </si>
   <si>
@@ -1483,6 +1603,9 @@
     <t>0.52%</t>
   </si>
   <si>
+    <t>1.55%</t>
+  </si>
+  <si>
     <t>38.26%</t>
   </si>
   <si>
@@ -1493,6 +1616,9 @@
   </si>
   <si>
     <t>1.34%</t>
+  </si>
+  <si>
+    <t>9.70%</t>
   </si>
   <si>
     <t>OCNG-401</t>
@@ -1608,12 +1734,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1907,15 +2032,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H335"/>
+  <dimension ref="A1:I335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1940,3692 +2065,4112 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>2.818</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
         <v>3.708</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
         <v>3.126</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
         <v>2.875</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
         <v>2.9105</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12" t="n">
         <v>3.417</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C15" t="n">
         <v>2.9205</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C18" t="n">
         <v>3.13</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" t="s">
         <v>19</v>
       </c>
-      <c r="H18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C21" t="n">
         <v>2.854</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G21" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C24" t="n">
         <v>2.6035</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="B27" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C27" t="n">
         <v>2.222</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="B30" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C30" t="n">
         <v>3.1</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F30" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C33" t="n">
         <v>2.9</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E33" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C36" t="n">
         <v>3.083</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F36" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="B39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C39" t="n">
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="B42" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C42" t="n">
         <v>3.286</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E42" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F42" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H42" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C45" t="n">
         <v>3.714</v>
       </c>
       <c r="D45" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E45" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C48" t="n">
         <v>3.444</v>
       </c>
       <c r="D48" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E48" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="B51" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C51" t="n">
         <v>2.57</v>
       </c>
       <c r="D51" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E51" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F51" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G51" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H51" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="B52" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C52" t="n">
         <v>2.757</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E52" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F52" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G52" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H52" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="B55" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C55" t="n">
         <v>3.096</v>
       </c>
       <c r="D55" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E55" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F55" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G55" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="H55" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="B56" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C56" t="n">
         <v>2.966</v>
       </c>
       <c r="D56" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E56" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F56" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G56" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="H56" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I56" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="B57" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C57" t="n">
         <v>3.083</v>
       </c>
       <c r="D57" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E57" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="F57" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C58" t="n">
         <v>2.748</v>
       </c>
       <c r="D58" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E58" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="F58" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G58" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H58" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I58" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="B61" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C61" t="n">
         <v>3.105</v>
       </c>
       <c r="D61" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E61" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="F61" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G61" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H61" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="B62" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C62" t="n">
         <v>2.6776</v>
       </c>
       <c r="D62" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E62" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F62" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="G62" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="H62" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I62" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="B63" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C63" t="n">
         <v>2.8851</v>
       </c>
       <c r="D63" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E63" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="F63" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="G63" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="H63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>162</v>
+      </c>
+      <c r="I63" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="B64" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C64" t="n">
         <v>2.3812</v>
       </c>
       <c r="D64" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="E64" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="F64" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="G64" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="H64" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>169</v>
+      </c>
+      <c r="I64" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="B65" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C65" t="n">
         <v>2.568</v>
       </c>
       <c r="D65" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="E65" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="F65" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G65" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="H65" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I65" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C68" t="n">
         <v>3.75</v>
       </c>
       <c r="D68" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="E68" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G68" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H68" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I68" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C71" t="n">
         <v>2.571</v>
       </c>
       <c r="D71" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="E71" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="F71" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="G71" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="H71" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I71" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C74" t="n">
         <v>2.835</v>
       </c>
       <c r="D74" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="E74" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="F74" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="G74" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="H74" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I74" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C77" t="n">
         <v>2.626</v>
       </c>
       <c r="D77" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="E77" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="F77" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="G77" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="H77" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I77" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="C80" t="n">
         <v>2.754</v>
       </c>
       <c r="D80" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="E80" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="F80" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="G80" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="H80" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>208</v>
+      </c>
+      <c r="I80" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="B83" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="C83" t="n">
         <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="E83" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G83" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H83" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>212</v>
+      </c>
+      <c r="I83" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="C86" t="n">
         <v>2.714</v>
       </c>
       <c r="D86" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="E86" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="F86" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="G86" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="H86" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>219</v>
+      </c>
+      <c r="I86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="B89" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="C89" t="n">
         <v>2.755</v>
       </c>
       <c r="D89" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="E89" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="F89" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="G89" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H89" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I89" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="B92" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="C92" t="n">
         <v>2.957</v>
       </c>
       <c r="D92" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="E92" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="F92" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="G92" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="H92" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>230</v>
+      </c>
+      <c r="I92" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="B95" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C95" t="n">
         <v>2.508</v>
       </c>
       <c r="D95" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="E95" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="F95" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="G95" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="H95" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>237</v>
+      </c>
+      <c r="I95" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="C98" t="n">
         <v>3.039</v>
       </c>
       <c r="D98" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E98" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="F98" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="G98" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="H98" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I98" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="B101" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C101" t="n">
         <v>2.077</v>
       </c>
       <c r="D101" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="E101" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="F101" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="G101" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="H101" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>249</v>
+      </c>
+      <c r="I101" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="B104" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="C104" t="n">
         <v>3.1485</v>
       </c>
       <c r="D104" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="E104" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="F104" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="G104" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H104" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I104" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="B107" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="C107" t="n">
         <v>3.76</v>
       </c>
       <c r="D107" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="E107" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="F107" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="G107" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H107" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I107" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="B110" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="C110" t="n">
         <v>3.0235</v>
       </c>
       <c r="D110" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E110" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="F110" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G110" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H110" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>263</v>
+      </c>
+      <c r="I110" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="B113" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="C113" t="n">
         <v>3.361</v>
       </c>
       <c r="D113" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E113" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="F113" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="G113" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H113" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I113" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="B116" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="C116" t="n">
         <v>2.944</v>
       </c>
       <c r="D116" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E116" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G116" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H116" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I116" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="B119" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="C119" t="n">
         <v>3.3335</v>
       </c>
       <c r="D119" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E119" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G119" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H119" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I119" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="B122" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="C122" t="n">
         <v>3.368</v>
       </c>
       <c r="D122" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="E122" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="F122" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G122" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H122" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I122" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="B125" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C125" t="n">
         <v>3</v>
       </c>
       <c r="D125" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="E125" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="F125" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="G125" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="H125" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I125" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="B128" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C128" t="n">
         <v>3.2</v>
       </c>
       <c r="D128" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="E128" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="F128" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="G128" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H128" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I128" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="B131" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C131" t="n">
         <v>4</v>
       </c>
       <c r="D131" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E131" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F131" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G131" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H131" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I131" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="B134" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="C134" t="n">
         <v>3.4415</v>
       </c>
       <c r="D134" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="E134" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="F134" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G134" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H134" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I134" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="B137" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="C137" t="n">
         <v>3.462</v>
       </c>
       <c r="D137" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="F137" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G137" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H137" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I137" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="B140" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="C140" t="n">
         <v>3.714</v>
       </c>
       <c r="D140" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E140" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F140" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G140" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H140" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I140" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="B143" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="C143" t="n">
         <v>3.571</v>
       </c>
       <c r="D143" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E143" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F143" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G143" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H143" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I143" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="B146" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C146" t="n">
         <v>4</v>
       </c>
       <c r="D146" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E146" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F146" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G146" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H146" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I146" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="B149" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="C149" t="n">
         <v>3.923</v>
       </c>
       <c r="D149" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="E149" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="F149" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G149" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H149" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I149" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="B152" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C152" t="n">
         <v>3.556</v>
       </c>
       <c r="D152" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="E152" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F152" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G152" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H152" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I152" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="B153" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="C153" t="n">
         <v>3.65</v>
       </c>
       <c r="D153" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="E153" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="F153" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G153" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H153" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I153" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="B154" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="C154" t="n">
         <v>3.9</v>
       </c>
       <c r="D154" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="E154" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="F154" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G154" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H154" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I154" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="B157" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="C157" t="n">
         <v>2.6721</v>
       </c>
       <c r="D157" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="E157" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="F157" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="G157" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="H157" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>310</v>
+      </c>
+      <c r="I157" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="B158" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="C158" t="n">
         <v>2.8529</v>
       </c>
       <c r="D158" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="E158" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="F158" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="G158" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="H158" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>316</v>
+      </c>
+      <c r="I158" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="B159" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="C159" t="n">
         <v>2.7187</v>
       </c>
       <c r="D159" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="E159" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="F159" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="G159" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="H159" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>323</v>
+      </c>
+      <c r="I159" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="B160" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="C160" t="n">
         <v>2.823</v>
       </c>
       <c r="D160" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="E160" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="F160" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G160" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="H160" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I160" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="B161" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="C161" t="n">
         <v>3.737</v>
       </c>
       <c r="D161" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="E161" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="F161" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G161" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H161" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I161" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="B162" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="C162" t="n">
         <v>2.9487</v>
       </c>
       <c r="D162" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="E162" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="F162" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="G162" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="H162" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>323</v>
+      </c>
+      <c r="I162" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="B163" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="C163" t="n">
         <v>2.6522</v>
       </c>
       <c r="D163" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E163" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="F163" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="G163" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="H163" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>340</v>
+      </c>
+      <c r="I163" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="B164" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="C164" t="n">
         <v>2.9766</v>
       </c>
       <c r="D164" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="E164" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="F164" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="G164" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="H164" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I164" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="B167" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="C167" t="n">
         <v>2.5512</v>
       </c>
       <c r="D167" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="E167" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="F167" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="G167" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="H167" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I167" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="B168" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="C168" t="n">
         <v>2.8699</v>
       </c>
       <c r="D168" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="E168" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="F168" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="G168" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="H168" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>355</v>
+      </c>
+      <c r="I168" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="B171" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="C171" t="n">
         <v>2.6302</v>
       </c>
       <c r="D171" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="G171" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="H171" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>363</v>
+      </c>
+      <c r="I171" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="B174" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="C174" t="n">
         <v>2.6375</v>
       </c>
       <c r="D174" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="E174" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="F174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G174" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="H174" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>369</v>
+      </c>
+      <c r="I174" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="B177" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="C177" t="n">
         <v>2.6715</v>
       </c>
       <c r="D177" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="E177" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="F177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G177" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="H177" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I177" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="B180" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="C180" t="n">
         <v>2.8383</v>
       </c>
       <c r="D180" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="G180" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="H180" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I180" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="B183" t="s">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="C183" t="n">
         <v>2.8632</v>
       </c>
       <c r="D183" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="E183" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="F183" t="s">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="G183" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="H183" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I183" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="B186" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="C186" t="n">
         <v>3.0323</v>
       </c>
       <c r="D186" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E186" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="F186" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="G186" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H186" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I186" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="B189" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="C189" t="n">
         <v>2.5735</v>
       </c>
       <c r="D189" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="E189" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="F189" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="G189" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="H189" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I189" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="B192" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="C192" t="n">
         <v>3</v>
       </c>
       <c r="D192" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="E192" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F192" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G192" t="s">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="H192" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>271</v>
+      </c>
+      <c r="I192" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="B193" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="C193" t="n">
         <v>3.25</v>
       </c>
       <c r="D193" t="s">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="E193" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="F193" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G193" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H193" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I193" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="B194" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="C194" t="n">
         <v>3.95</v>
       </c>
       <c r="D194" t="s">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="E194" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="F194" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G194" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H194" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I194" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="B197" t="s">
-        <v>371</v>
+        <v>405</v>
       </c>
       <c r="C197" t="n">
         <v>2.8125</v>
       </c>
       <c r="D197" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E197" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="F197" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="G197" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="H197" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I197" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="B200" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="C200" t="n">
         <v>3.407</v>
       </c>
       <c r="D200" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="E200" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="F200" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="G200" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H200" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I200" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="B203" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="C203" t="n">
         <v>4</v>
       </c>
       <c r="D203" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E203" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F203" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G203" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H203" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I203" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="B206" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="C206" t="n">
         <v>3.14</v>
       </c>
       <c r="D206" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="E206" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F206" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="G206" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="H206" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>417</v>
+      </c>
+      <c r="I206" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="B209" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="C209" t="n">
         <v>2.7605</v>
       </c>
       <c r="D209" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="E209" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F209" t="s">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="G209" t="s">
-        <v>387</v>
+        <v>423</v>
       </c>
       <c r="H209" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I209" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="B212" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="C212" t="n">
         <v>3.429</v>
       </c>
       <c r="D212" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E212" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F212" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G212" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H212" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I212" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="B215" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="C215" t="n">
         <v>4</v>
       </c>
       <c r="D215" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E215" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F215" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G215" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H215" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I215" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="B218" t="s">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="C218" t="n">
         <v>3.765</v>
       </c>
       <c r="D218" t="s">
-        <v>392</v>
+        <v>429</v>
       </c>
       <c r="E218" t="s">
-        <v>393</v>
+        <v>430</v>
       </c>
       <c r="F218" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G218" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H218" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I218" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="B221" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="C221" t="n">
         <v>3.696</v>
       </c>
       <c r="D221" t="s">
-        <v>396</v>
+        <v>433</v>
       </c>
       <c r="E221" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F221" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G221" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H221" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I221" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="B224" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="C224" t="n">
         <v>3.6</v>
       </c>
       <c r="D224" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="E224" t="s">
-        <v>398</v>
+        <v>435</v>
       </c>
       <c r="F224" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G224" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H224" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I224" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="B227" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="C227" t="n">
         <v>3.846</v>
       </c>
       <c r="D227" t="s">
-        <v>400</v>
+        <v>437</v>
       </c>
       <c r="E227" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="F227" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G227" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H227" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I227" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="B230" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="C230" t="n">
         <v>4</v>
       </c>
       <c r="D230" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E230" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F230" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G230" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H230" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I230" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="B233" t="s">
-        <v>403</v>
+        <v>440</v>
       </c>
       <c r="C233" t="n">
         <v>3.562</v>
       </c>
       <c r="D233" t="s">
-        <v>404</v>
+        <v>441</v>
       </c>
       <c r="E233" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="F233" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G233" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H233" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I233" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="B236" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="C236" t="n">
         <v>3.875</v>
       </c>
       <c r="D236" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
       <c r="E236" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F236" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G236" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H236" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I236" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="B237" t="s">
-        <v>403</v>
+        <v>440</v>
       </c>
       <c r="C237" t="n">
         <v>3.286</v>
       </c>
       <c r="D237" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E237" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F237" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G237" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H237" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I237" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="B240" t="s">
-        <v>408</v>
+        <v>445</v>
       </c>
       <c r="C240" t="n">
         <v>2.656</v>
       </c>
       <c r="D240" t="s">
-        <v>409</v>
+        <v>446</v>
       </c>
       <c r="E240" t="s">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="F240" t="s">
-        <v>411</v>
+        <v>448</v>
       </c>
       <c r="G240" t="s">
-        <v>412</v>
+        <v>449</v>
       </c>
       <c r="H240" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+        <v>450</v>
+      </c>
+      <c r="I240" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="A242" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="B243" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="C243" t="n">
         <v>3.824</v>
       </c>
       <c r="D243" t="s">
-        <v>415</v>
+        <v>452</v>
       </c>
       <c r="E243" t="s">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="F243" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G243" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H243" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I243" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
       <c r="A245" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="B246" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="C246" t="n">
         <v>3.45</v>
       </c>
       <c r="D246" t="s">
-        <v>417</v>
+        <v>454</v>
       </c>
       <c r="E246" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="F246" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="G246" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H246" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I246" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
       <c r="A248" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="B249" t="s">
-        <v>419</v>
+        <v>456</v>
       </c>
       <c r="C249" t="n">
         <v>2</v>
       </c>
       <c r="D249" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="E249" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="F249" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="G249" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="H249" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
+        <v>457</v>
+      </c>
+      <c r="I249" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
       <c r="A251" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
       <c r="B252" t="s">
-        <v>422</v>
+        <v>459</v>
       </c>
       <c r="C252" t="n">
         <v>3.75</v>
       </c>
       <c r="D252" t="s">
-        <v>423</v>
+        <v>460</v>
       </c>
       <c r="E252" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F252" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G252" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H252" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I252" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
       <c r="A254" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
       <c r="B255" t="s">
-        <v>425</v>
+        <v>462</v>
       </c>
       <c r="C255" t="n">
         <v>3.572</v>
       </c>
       <c r="D255" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="E255" t="s">
-        <v>426</v>
+        <v>463</v>
       </c>
       <c r="F255" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G255" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H255" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I255" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
       <c r="A257" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
       <c r="B258" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="C258" t="n">
         <v>3.8</v>
       </c>
       <c r="D258" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="E258" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F258" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G258" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H258" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I258" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
       <c r="A260" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
       <c r="B261" t="s">
-        <v>422</v>
+        <v>459</v>
       </c>
       <c r="C261" t="n">
         <v>3.6</v>
       </c>
       <c r="D261" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="E261" t="s">
-        <v>398</v>
+        <v>435</v>
       </c>
       <c r="F261" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G261" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H261" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I261" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
       <c r="A263" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
       <c r="B264" t="s">
-        <v>430</v>
+        <v>467</v>
       </c>
       <c r="C264" t="n">
         <v>3.944</v>
       </c>
       <c r="D264" t="s">
-        <v>431</v>
+        <v>468</v>
       </c>
       <c r="E264" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F264" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G264" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H264" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I264" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
       <c r="B265" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="C265" t="n">
         <v>4</v>
       </c>
       <c r="D265" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E265" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F265" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G265" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H265" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I265" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
       <c r="B266" t="s">
-        <v>433</v>
+        <v>470</v>
       </c>
       <c r="C266" t="n">
         <v>3.412</v>
       </c>
       <c r="D266" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="E266" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="F266" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G266" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H266" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I266" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
       <c r="B267" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="C267" t="n">
         <v>3.65</v>
       </c>
       <c r="D267" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="E267" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="F267" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G267" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H267" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I267" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
       <c r="B268" t="s">
-        <v>403</v>
+        <v>440</v>
       </c>
       <c r="C268" t="n">
         <v>4</v>
       </c>
       <c r="D268" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E268" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F268" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G268" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H268" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I268" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
       <c r="B269" t="s">
-        <v>436</v>
+        <v>473</v>
       </c>
       <c r="C269" t="n">
         <v>4</v>
       </c>
       <c r="D269" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E269" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F269" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G269" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H269" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I269" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
       <c r="B270" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="C270" t="n">
         <v>4</v>
       </c>
       <c r="D270" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E270" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F270" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G270" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H270" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I270" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
       <c r="B271" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="C271" t="n">
         <v>3.667</v>
       </c>
       <c r="D271" t="s">
-        <v>437</v>
+        <v>474</v>
       </c>
       <c r="E271" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="F271" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G271" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H271" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I271" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
       <c r="B272" t="s">
-        <v>438</v>
+        <v>475</v>
       </c>
       <c r="C272" t="n">
         <v>4</v>
       </c>
       <c r="D272" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E272" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F272" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G272" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H272" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I272" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
       <c r="B273" t="s">
-        <v>439</v>
+        <v>476</v>
       </c>
       <c r="C273" t="n">
         <v>3.5</v>
       </c>
       <c r="D273" t="s">
-        <v>423</v>
+        <v>460</v>
       </c>
       <c r="E273" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="F273" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="G273" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H273" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I273" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
       <c r="A275" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
       <c r="B276" t="s">
-        <v>441</v>
+        <v>478</v>
       </c>
       <c r="C276" t="n">
         <v>3.582</v>
       </c>
       <c r="D276" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
       <c r="E276" t="s">
-        <v>443</v>
+        <v>480</v>
       </c>
       <c r="F276" t="s">
-        <v>444</v>
+        <v>481</v>
       </c>
       <c r="G276" t="s">
-        <v>445</v>
+        <v>482</v>
       </c>
       <c r="H276" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I276" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
       <c r="A278" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
       <c r="B279" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C279" t="n">
         <v>2.731</v>
       </c>
       <c r="D279" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
       <c r="E279" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="F279" t="s">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="G279" t="s">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="H279" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I279" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
       <c r="A281" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
       <c r="B282" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="C282" t="n">
         <v>3.708</v>
       </c>
       <c r="D282" t="s">
-        <v>452</v>
+        <v>489</v>
       </c>
       <c r="E282" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F282" t="s">
+        <v>21</v>
+      </c>
+      <c r="G282" t="s">
         <v>19</v>
       </c>
-      <c r="G282" t="s">
-        <v>17</v>
-      </c>
       <c r="H282" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I282" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
       <c r="A284" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
       <c r="B285" t="s">
-        <v>454</v>
+        <v>491</v>
       </c>
       <c r="C285" t="n">
         <v>3.333</v>
       </c>
       <c r="D285" t="s">
-        <v>398</v>
+        <v>435</v>
       </c>
       <c r="E285" t="s">
-        <v>455</v>
+        <v>492</v>
       </c>
       <c r="F285" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="G285" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H285" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I285" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
       <c r="A287" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
       <c r="B288" t="s">
-        <v>458</v>
+        <v>494</v>
       </c>
       <c r="C288" t="n">
         <v>3</v>
       </c>
       <c r="D288" t="s">
-        <v>404</v>
+        <v>441</v>
       </c>
       <c r="E288" t="s">
-        <v>459</v>
+        <v>495</v>
       </c>
       <c r="F288" t="s">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="G288" t="s">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="H288" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I288" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
       <c r="A290" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
       <c r="B291" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="C291" t="n">
         <v>3.45</v>
       </c>
       <c r="D291" t="s">
-        <v>423</v>
+        <v>460</v>
       </c>
       <c r="E291" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="F291" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="G291" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="H291" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I291" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
       <c r="B292" t="s">
-        <v>461</v>
+        <v>497</v>
       </c>
       <c r="C292" t="n">
         <v>3.643</v>
       </c>
       <c r="D292" t="s">
-        <v>462</v>
+        <v>498</v>
       </c>
       <c r="E292" t="s">
-        <v>463</v>
+        <v>499</v>
       </c>
       <c r="F292" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G292" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H292" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I292" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
       <c r="A294" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
       <c r="B295" t="s">
-        <v>438</v>
+        <v>475</v>
       </c>
       <c r="C295" t="n">
         <v>3.232</v>
       </c>
       <c r="D295" t="s">
-        <v>465</v>
+        <v>501</v>
       </c>
       <c r="E295" t="s">
-        <v>466</v>
+        <v>502</v>
       </c>
       <c r="F295" t="s">
-        <v>467</v>
+        <v>503</v>
       </c>
       <c r="G295" t="s">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="H295" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I295" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
       <c r="B296" t="s">
-        <v>469</v>
+        <v>506</v>
       </c>
       <c r="C296" t="n">
         <v>2.809</v>
       </c>
       <c r="D296" t="s">
-        <v>470</v>
+        <v>507</v>
       </c>
       <c r="E296" t="s">
-        <v>471</v>
+        <v>508</v>
       </c>
       <c r="F296" t="s">
-        <v>470</v>
+        <v>507</v>
       </c>
       <c r="G296" t="s">
-        <v>472</v>
+        <v>509</v>
       </c>
       <c r="H296" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
+        <v>510</v>
+      </c>
+      <c r="I296" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
       <c r="B297" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="C297" t="n">
         <v>3.636</v>
       </c>
       <c r="D297" t="s">
-        <v>475</v>
+        <v>513</v>
       </c>
       <c r="E297" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="F297" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="G297" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H297" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I297" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9">
       <c r="B298" t="s">
-        <v>476</v>
+        <v>514</v>
       </c>
       <c r="C298" t="n">
         <v>3.333</v>
       </c>
       <c r="D298" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="E298" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="F298" t="s">
-        <v>477</v>
+        <v>515</v>
       </c>
       <c r="G298" t="s">
-        <v>478</v>
+        <v>516</v>
       </c>
       <c r="H298" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
+        <v>516</v>
+      </c>
+      <c r="I298" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
       <c r="B299" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="C299" t="n">
         <v>2.871</v>
       </c>
       <c r="D299" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="E299" t="s">
-        <v>481</v>
+        <v>520</v>
       </c>
       <c r="F299" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="G299" t="s">
-        <v>482</v>
+        <v>521</v>
       </c>
       <c r="H299" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8">
+        <v>522</v>
+      </c>
+      <c r="I299" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
       <c r="B300" t="s">
-        <v>484</v>
+        <v>524</v>
       </c>
       <c r="C300" t="n">
         <v>3.309</v>
       </c>
       <c r="D300" t="s">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="E300" t="s">
-        <v>486</v>
+        <v>526</v>
       </c>
       <c r="F300" t="s">
-        <v>487</v>
+        <v>527</v>
       </c>
       <c r="G300" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H300" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8">
+        <v>528</v>
+      </c>
+      <c r="I300" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9">
       <c r="B301" t="s">
-        <v>461</v>
+        <v>497</v>
       </c>
       <c r="C301" t="n">
         <v>2.577</v>
       </c>
       <c r="D301" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="E301" t="s">
-        <v>489</v>
+        <v>530</v>
       </c>
       <c r="F301" t="s">
-        <v>490</v>
+        <v>531</v>
       </c>
       <c r="G301" t="s">
-        <v>491</v>
+        <v>532</v>
       </c>
       <c r="H301" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
+        <v>533</v>
+      </c>
+      <c r="I301" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
       <c r="A303" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9">
       <c r="B304" t="s">
-        <v>494</v>
+        <v>536</v>
       </c>
       <c r="C304" t="n">
         <v>3.4385</v>
       </c>
       <c r="D304" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E304" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F304" t="s">
-        <v>463</v>
+        <v>499</v>
       </c>
       <c r="G304" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H304" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I304" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
       <c r="A306" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
       <c r="B307" t="s">
-        <v>496</v>
+        <v>538</v>
       </c>
       <c r="C307" t="n">
         <v>3.071</v>
       </c>
       <c r="D307" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E307" t="s">
-        <v>497</v>
+        <v>539</v>
       </c>
       <c r="F307" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G307" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H307" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
+        <v>499</v>
+      </c>
+      <c r="I307" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9">
       <c r="A309" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
       <c r="B310" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="C310" t="n">
         <v>3.344</v>
       </c>
       <c r="D310" t="s">
-        <v>499</v>
+        <v>541</v>
       </c>
       <c r="E310" t="s">
-        <v>500</v>
+        <v>542</v>
       </c>
       <c r="F310" t="s">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="G310" t="s">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="H310" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I310" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
       <c r="A312" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9">
       <c r="B313" t="s">
-        <v>502</v>
+        <v>544</v>
       </c>
       <c r="C313" t="n">
         <v>3.25</v>
       </c>
       <c r="D313" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="E313" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F313" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G313" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H313" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I313" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
       <c r="A315" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
       <c r="B316" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="C316" t="n">
         <v>3.8</v>
       </c>
       <c r="D316" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="E316" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F316" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G316" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H316" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I316" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
       <c r="A318" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9">
       <c r="B319" t="s">
-        <v>502</v>
+        <v>544</v>
       </c>
       <c r="C319" t="n">
         <v>3.231</v>
       </c>
       <c r="D319" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="E319" t="s">
-        <v>505</v>
+        <v>547</v>
       </c>
       <c r="F319" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="G319" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H319" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I319" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
       <c r="A321" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
       <c r="B322" t="s">
-        <v>507</v>
+        <v>549</v>
       </c>
       <c r="C322" t="n">
         <v>3.6</v>
       </c>
       <c r="D322" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="E322" t="s">
-        <v>398</v>
+        <v>435</v>
       </c>
       <c r="F322" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G322" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H322" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I322" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9">
       <c r="A324" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
       <c r="B325" t="s">
-        <v>509</v>
+        <v>551</v>
       </c>
       <c r="C325" t="n">
         <v>4</v>
       </c>
       <c r="D325" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E325" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F325" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G325" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H325" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I325" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9">
       <c r="A327" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
       <c r="B328" t="s">
-        <v>511</v>
+        <v>553</v>
       </c>
       <c r="C328" t="n">
         <v>4</v>
       </c>
       <c r="D328" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E328" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F328" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G328" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H328" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I328" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
       <c r="A330" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
-        <v>513</v>
+        <v>555</v>
       </c>
       <c r="C331" t="n">
         <v>4</v>
       </c>
       <c r="D331" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E331" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F331" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G331" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H331" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I331" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
-        <v>514</v>
+        <v>556</v>
       </c>
       <c r="C332" t="n">
         <v>4</v>
       </c>
       <c r="D332" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E332" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F332" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G332" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H332" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I332" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
       <c r="A334" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
-        <v>516</v>
+        <v>558</v>
       </c>
       <c r="C335" t="n">
         <v>3.647</v>
       </c>
       <c r="D335" t="s">
-        <v>517</v>
+        <v>559</v>
       </c>
       <c r="E335" t="s">
-        <v>518</v>
+        <v>560</v>
       </c>
       <c r="F335" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G335" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H335" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="I335" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Fall2013/Output/Fall2013 GE.xlsx
+++ b/GradeDistributionsDB/Fall2013/Output/Fall2013 GE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="530">
   <si>
     <t>Course</t>
   </si>
@@ -313,6 +313,18 @@
     <t>44.44%</t>
   </si>
   <si>
+    <t>ATMO-689</t>
+  </si>
+  <si>
+    <t>NIELSEN-GAMMON J</t>
+  </si>
+  <si>
+    <t>70.00%</t>
+  </si>
+  <si>
+    <t>30.00%</t>
+  </si>
+  <si>
     <t>GEOG-201</t>
   </si>
   <si>
@@ -775,9 +787,6 @@
     <t>GEOG-467</t>
   </si>
   <si>
-    <t>30.00%</t>
-  </si>
-  <si>
     <t>60.00%</t>
   </si>
   <si>
@@ -1495,6 +1504,27 @@
     <t>1.34%</t>
   </si>
   <si>
+    <t>OCNG-252</t>
+  </si>
+  <si>
+    <t>YVON-LEWIS S</t>
+  </si>
+  <si>
+    <t>67.86%</t>
+  </si>
+  <si>
+    <t>23.73%</t>
+  </si>
+  <si>
+    <t>5.65%</t>
+  </si>
+  <si>
+    <t>1.27%</t>
+  </si>
+  <si>
+    <t>1.50%</t>
+  </si>
+  <si>
     <t>OCNG-401</t>
   </si>
   <si>
@@ -1538,6 +1568,9 @@
   </si>
   <si>
     <t>ORSI A</t>
+  </si>
+  <si>
+    <t>OCNG-640</t>
   </si>
   <si>
     <t>OCNG-644</t>
@@ -1907,7 +1940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H335"/>
+  <dimension ref="A1:H344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2440,7 +2473,7 @@
         <v>100</v>
       </c>
       <c r="C51" t="n">
-        <v>2.57</v>
+        <v>3.7</v>
       </c>
       <c r="D51" t="s">
         <v>101</v>
@@ -2449,278 +2482,278 @@
         <v>102</v>
       </c>
       <c r="F51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
         <v>103</v>
       </c>
-      <c r="G51" t="s">
+    </row>
+    <row r="54" spans="1:8">
+      <c r="B54" t="s">
         <v>104</v>
       </c>
-      <c r="H51" t="s">
+      <c r="C54" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D54" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="B52" t="s">
+      <c r="E54" t="s">
         <v>106</v>
       </c>
-      <c r="C52" t="n">
-        <v>2.757</v>
-      </c>
-      <c r="D52" t="s">
-        <v>78</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="F54" t="s">
         <v>107</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G54" t="s">
         <v>108</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H54" t="s">
         <v>109</v>
-      </c>
-      <c r="H52" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="B55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.757</v>
+      </c>
+      <c r="D55" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" t="s">
+        <v>111</v>
+      </c>
+      <c r="F55" t="s">
         <v>112</v>
       </c>
-      <c r="C55" t="n">
-        <v>3.096</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="G55" t="s">
         <v>113</v>
       </c>
-      <c r="E55" t="s">
+      <c r="H55" t="s">
         <v>114</v>
       </c>
-      <c r="F55" t="s">
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
         <v>115</v>
-      </c>
-      <c r="G55" t="s">
-        <v>116</v>
-      </c>
-      <c r="H55" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="B56" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" t="n">
-        <v>2.966</v>
-      </c>
-      <c r="D56" t="s">
-        <v>119</v>
-      </c>
-      <c r="E56" t="s">
-        <v>120</v>
-      </c>
-      <c r="F56" t="s">
-        <v>121</v>
-      </c>
-      <c r="G56" t="s">
-        <v>122</v>
-      </c>
-      <c r="H56" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="B57" t="s">
-        <v>124</v>
-      </c>
-      <c r="C57" t="n">
-        <v>3.083</v>
-      </c>
-      <c r="D57" t="s">
-        <v>40</v>
-      </c>
-      <c r="E57" t="s">
-        <v>125</v>
-      </c>
-      <c r="F57" t="s">
-        <v>126</v>
-      </c>
-      <c r="G57" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="B58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3.096</v>
+      </c>
+      <c r="D58" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" t="s">
+        <v>118</v>
+      </c>
+      <c r="F58" t="s">
+        <v>119</v>
+      </c>
+      <c r="G58" t="s">
+        <v>120</v>
+      </c>
+      <c r="H58" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="B59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.966</v>
+      </c>
+      <c r="D59" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" t="s">
+        <v>124</v>
+      </c>
+      <c r="F59" t="s">
+        <v>125</v>
+      </c>
+      <c r="G59" t="s">
+        <v>126</v>
+      </c>
+      <c r="H59" t="s">
         <v>127</v>
       </c>
-      <c r="C58" t="n">
-        <v>2.748</v>
-      </c>
-      <c r="D58" t="s">
+    </row>
+    <row r="60" spans="1:8">
+      <c r="B60" t="s">
         <v>128</v>
       </c>
-      <c r="E58" t="s">
+      <c r="C60" t="n">
+        <v>3.083</v>
+      </c>
+      <c r="D60" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60" t="s">
         <v>129</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F60" t="s">
         <v>130</v>
       </c>
-      <c r="G58" t="s">
-        <v>131</v>
-      </c>
-      <c r="H58" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="s">
-        <v>133</v>
+      <c r="G60" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="B61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2.748</v>
+      </c>
+      <c r="D61" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61" t="s">
+        <v>133</v>
+      </c>
+      <c r="F61" t="s">
         <v>134</v>
       </c>
-      <c r="C61" t="n">
-        <v>3.105</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="G61" t="s">
         <v>135</v>
       </c>
-      <c r="E61" t="s">
+      <c r="H61" t="s">
         <v>136</v>
       </c>
-      <c r="F61" t="s">
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
         <v>137</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="B62" t="s">
-        <v>139</v>
-      </c>
-      <c r="C62" t="n">
-        <v>2.6776</v>
-      </c>
-      <c r="D62" t="s">
-        <v>140</v>
-      </c>
-      <c r="E62" t="s">
-        <v>141</v>
-      </c>
-      <c r="F62" t="s">
-        <v>142</v>
-      </c>
-      <c r="G62" t="s">
-        <v>143</v>
-      </c>
-      <c r="H62" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="B63" t="s">
-        <v>145</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2.8851</v>
-      </c>
-      <c r="D63" t="s">
-        <v>146</v>
-      </c>
-      <c r="E63" t="s">
-        <v>147</v>
-      </c>
-      <c r="F63" t="s">
-        <v>148</v>
-      </c>
-      <c r="G63" t="s">
-        <v>149</v>
-      </c>
-      <c r="H63" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="B64" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C64" t="n">
-        <v>2.3812</v>
+        <v>3.105</v>
       </c>
       <c r="D64" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="E64" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="F64" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="G64" t="s">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="B65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2.6776</v>
+      </c>
+      <c r="D65" t="s">
+        <v>144</v>
+      </c>
+      <c r="E65" t="s">
+        <v>145</v>
+      </c>
+      <c r="F65" t="s">
+        <v>146</v>
+      </c>
+      <c r="G65" t="s">
+        <v>147</v>
+      </c>
+      <c r="H65" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="B66" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2.8851</v>
+      </c>
+      <c r="D66" t="s">
+        <v>150</v>
+      </c>
+      <c r="E66" t="s">
+        <v>151</v>
+      </c>
+      <c r="F66" t="s">
+        <v>152</v>
+      </c>
+      <c r="G66" t="s">
+        <v>153</v>
+      </c>
+      <c r="H66" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="B67" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2.3812</v>
+      </c>
+      <c r="D67" t="s">
+        <v>156</v>
+      </c>
+      <c r="E67" t="s">
         <v>157</v>
       </c>
-      <c r="C65" t="n">
-        <v>2.568</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="F67" t="s">
         <v>158</v>
       </c>
-      <c r="E65" t="s">
+      <c r="G67" t="s">
         <v>159</v>
       </c>
-      <c r="F65" t="s">
-        <v>114</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="H67" t="s">
         <v>160</v>
-      </c>
-      <c r="H65" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="B68" t="s">
+        <v>161</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2.568</v>
+      </c>
+      <c r="D68" t="s">
+        <v>162</v>
+      </c>
+      <c r="E68" t="s">
         <v>163</v>
       </c>
-      <c r="C68" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="F68" t="s">
+        <v>118</v>
+      </c>
+      <c r="G68" t="s">
         <v>164</v>
-      </c>
-      <c r="E68" t="s">
-        <v>165</v>
-      </c>
-      <c r="F68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" t="s">
-        <v>19</v>
       </c>
       <c r="H68" t="s">
         <v>165</v>
@@ -2733,134 +2766,134 @@
     </row>
     <row r="71" spans="1:8">
       <c r="B71" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="C71" t="n">
-        <v>2.571</v>
+        <v>3.75</v>
       </c>
       <c r="D71" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E71" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F71" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" t="s">
         <v>169</v>
-      </c>
-      <c r="G71" t="s">
-        <v>170</v>
-      </c>
-      <c r="H71" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="B74" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C74" t="n">
-        <v>2.835</v>
+        <v>2.571</v>
       </c>
       <c r="D74" t="s">
+        <v>171</v>
+      </c>
+      <c r="E74" t="s">
+        <v>172</v>
+      </c>
+      <c r="F74" t="s">
         <v>173</v>
       </c>
-      <c r="E74" t="s">
+      <c r="G74" t="s">
         <v>174</v>
       </c>
-      <c r="F74" t="s">
+      <c r="H74" t="s">
         <v>175</v>
-      </c>
-      <c r="G74" t="s">
-        <v>176</v>
-      </c>
-      <c r="H74" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="B77" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C77" t="n">
-        <v>2.626</v>
+        <v>2.835</v>
       </c>
       <c r="D77" t="s">
+        <v>177</v>
+      </c>
+      <c r="E77" t="s">
+        <v>178</v>
+      </c>
+      <c r="F77" t="s">
         <v>179</v>
       </c>
-      <c r="E77" t="s">
+      <c r="G77" t="s">
         <v>180</v>
       </c>
-      <c r="F77" t="s">
+      <c r="H77" t="s">
         <v>181</v>
-      </c>
-      <c r="G77" t="s">
-        <v>182</v>
-      </c>
-      <c r="H77" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="B80" t="s">
+        <v>116</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2.626</v>
+      </c>
+      <c r="D80" t="s">
+        <v>183</v>
+      </c>
+      <c r="E80" t="s">
+        <v>184</v>
+      </c>
+      <c r="F80" t="s">
         <v>185</v>
       </c>
-      <c r="C80" t="n">
-        <v>2.754</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="G80" t="s">
         <v>186</v>
       </c>
-      <c r="E80" t="s">
+      <c r="H80" t="s">
         <v>187</v>
-      </c>
-      <c r="F80" t="s">
-        <v>188</v>
-      </c>
-      <c r="G80" t="s">
-        <v>189</v>
-      </c>
-      <c r="H80" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="B83" t="s">
+        <v>189</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2.754</v>
+      </c>
+      <c r="D83" t="s">
+        <v>190</v>
+      </c>
+      <c r="E83" t="s">
         <v>191</v>
       </c>
-      <c r="C83" t="n">
-        <v>3</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="F83" t="s">
         <v>192</v>
       </c>
-      <c r="E83" t="s">
-        <v>125</v>
-      </c>
-      <c r="F83" t="s">
-        <v>41</v>
-      </c>
       <c r="G83" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="H83" t="s">
         <v>193</v>
@@ -2876,66 +2909,66 @@
         <v>195</v>
       </c>
       <c r="C86" t="n">
-        <v>2.714</v>
+        <v>3</v>
       </c>
       <c r="D86" t="s">
         <v>196</v>
       </c>
       <c r="E86" t="s">
+        <v>129</v>
+      </c>
+      <c r="F86" t="s">
+        <v>41</v>
+      </c>
+      <c r="G86" t="s">
+        <v>19</v>
+      </c>
+      <c r="H86" t="s">
         <v>197</v>
-      </c>
-      <c r="F86" t="s">
-        <v>198</v>
-      </c>
-      <c r="G86" t="s">
-        <v>199</v>
-      </c>
-      <c r="H86" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="B89" t="s">
+        <v>199</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2.714</v>
+      </c>
+      <c r="D89" t="s">
+        <v>200</v>
+      </c>
+      <c r="E89" t="s">
+        <v>201</v>
+      </c>
+      <c r="F89" t="s">
         <v>202</v>
       </c>
-      <c r="C89" t="n">
-        <v>2.755</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="G89" t="s">
         <v>203</v>
       </c>
-      <c r="E89" t="s">
+      <c r="H89" t="s">
         <v>204</v>
-      </c>
-      <c r="F89" t="s">
-        <v>205</v>
-      </c>
-      <c r="G89" t="s">
-        <v>206</v>
-      </c>
-      <c r="H89" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="B92" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="C92" t="n">
-        <v>2.957</v>
+        <v>2.755</v>
       </c>
       <c r="D92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E92" t="s">
         <v>208</v>
@@ -2947,7 +2980,7 @@
         <v>210</v>
       </c>
       <c r="H92" t="s">
-        <v>210</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2957,53 +2990,53 @@
     </row>
     <row r="95" spans="1:8">
       <c r="B95" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="C95" t="n">
-        <v>2.508</v>
+        <v>2.957</v>
       </c>
       <c r="D95" t="s">
         <v>212</v>
       </c>
       <c r="E95" t="s">
+        <v>212</v>
+      </c>
+      <c r="F95" t="s">
         <v>213</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>214</v>
       </c>
-      <c r="G95" t="s">
-        <v>215</v>
-      </c>
       <c r="H95" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="B98" t="s">
+        <v>104</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2.508</v>
+      </c>
+      <c r="D98" t="s">
+        <v>216</v>
+      </c>
+      <c r="E98" t="s">
+        <v>217</v>
+      </c>
+      <c r="F98" t="s">
         <v>218</v>
       </c>
-      <c r="C98" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="D98" t="s">
-        <v>153</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="G98" t="s">
         <v>219</v>
       </c>
-      <c r="F98" t="s">
+      <c r="H98" t="s">
         <v>220</v>
-      </c>
-      <c r="G98" t="s">
-        <v>156</v>
-      </c>
-      <c r="H98" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3013,13 +3046,13 @@
     </row>
     <row r="101" spans="1:8">
       <c r="B101" t="s">
-        <v>151</v>
+        <v>222</v>
       </c>
       <c r="C101" t="n">
-        <v>2.077</v>
+        <v>3.039</v>
       </c>
       <c r="D101" t="s">
-        <v>222</v>
+        <v>157</v>
       </c>
       <c r="E101" t="s">
         <v>223</v>
@@ -3028,60 +3061,60 @@
         <v>224</v>
       </c>
       <c r="G101" t="s">
-        <v>225</v>
+        <v>160</v>
       </c>
       <c r="H101" t="s">
-        <v>226</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="B104" t="s">
+        <v>155</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2.077</v>
+      </c>
+      <c r="D104" t="s">
+        <v>226</v>
+      </c>
+      <c r="E104" t="s">
+        <v>227</v>
+      </c>
+      <c r="F104" t="s">
         <v>228</v>
       </c>
-      <c r="C104" t="n">
-        <v>3.1485</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="G104" t="s">
         <v>229</v>
       </c>
-      <c r="E104" t="s">
+      <c r="H104" t="s">
         <v>230</v>
-      </c>
-      <c r="F104" t="s">
-        <v>231</v>
-      </c>
-      <c r="G104" t="s">
-        <v>19</v>
-      </c>
-      <c r="H104" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="B107" t="s">
+        <v>232</v>
+      </c>
+      <c r="C107" t="n">
+        <v>3.1485</v>
+      </c>
+      <c r="D107" t="s">
         <v>233</v>
       </c>
-      <c r="C107" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>234</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>235</v>
-      </c>
-      <c r="F107" t="s">
-        <v>236</v>
       </c>
       <c r="G107" t="s">
         <v>19</v>
@@ -3092,142 +3125,142 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="B110" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="C110" t="n">
-        <v>3.0235</v>
+        <v>3.76</v>
       </c>
       <c r="D110" t="s">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="E110" t="s">
-        <v>125</v>
+        <v>239</v>
       </c>
       <c r="F110" t="s">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="G110" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="H110" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="B113" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C113" t="n">
-        <v>3.361</v>
+        <v>3.0235</v>
       </c>
       <c r="D113" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="E113" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F113" t="s">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="G113" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="H113" t="s">
-        <v>19</v>
+        <v>242</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="B116" t="s">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="C116" t="n">
-        <v>2.944</v>
+        <v>3.361</v>
       </c>
       <c r="D116" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E116" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="F116" t="s">
-        <v>67</v>
+        <v>244</v>
       </c>
       <c r="G116" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="H116" t="s">
-        <v>240</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="B119" t="s">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="C119" t="n">
-        <v>3.3335</v>
+        <v>2.944</v>
       </c>
       <c r="D119" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E119" t="s">
         <v>40</v>
       </c>
       <c r="F119" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="G119" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="H119" t="s">
-        <v>19</v>
+        <v>244</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="B122" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C122" t="n">
-        <v>3.368</v>
+        <v>3.3335</v>
       </c>
       <c r="D122" t="s">
-        <v>246</v>
+        <v>97</v>
       </c>
       <c r="E122" t="s">
-        <v>247</v>
+        <v>40</v>
       </c>
       <c r="F122" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="G122" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="H122" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3237,25 +3270,25 @@
     </row>
     <row r="125" spans="1:8">
       <c r="B125" t="s">
-        <v>145</v>
+        <v>249</v>
       </c>
       <c r="C125" t="n">
-        <v>3</v>
+        <v>3.368</v>
       </c>
       <c r="D125" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E125" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F125" t="s">
-        <v>251</v>
+        <v>19</v>
       </c>
       <c r="G125" t="s">
-        <v>251</v>
+        <v>142</v>
       </c>
       <c r="H125" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3265,10 +3298,10 @@
     </row>
     <row r="128" spans="1:8">
       <c r="B128" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C128" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D128" t="s">
         <v>253</v>
@@ -3280,7 +3313,7 @@
         <v>255</v>
       </c>
       <c r="G128" t="s">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="H128" t="s">
         <v>19</v>
@@ -3293,19 +3326,19 @@
     </row>
     <row r="131" spans="1:8">
       <c r="B131" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C131" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D131" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="E131" t="s">
-        <v>19</v>
+        <v>257</v>
       </c>
       <c r="F131" t="s">
-        <v>19</v>
+        <v>258</v>
       </c>
       <c r="G131" t="s">
         <v>19</v>
@@ -3316,27 +3349,27 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="B134" t="s">
-        <v>258</v>
+        <v>161</v>
       </c>
       <c r="C134" t="n">
-        <v>3.4415</v>
+        <v>4</v>
       </c>
       <c r="D134" t="s">
-        <v>259</v>
+        <v>87</v>
       </c>
       <c r="E134" t="s">
-        <v>260</v>
+        <v>19</v>
       </c>
       <c r="F134" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="G134" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="H134" t="s">
         <v>19</v>
@@ -3344,15 +3377,15 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="B137" t="s">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="C137" t="n">
-        <v>3.462</v>
+        <v>3.4415</v>
       </c>
       <c r="D137" t="s">
         <v>262</v>
@@ -3361,10 +3394,10 @@
         <v>263</v>
       </c>
       <c r="F137" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="G137" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="H137" t="s">
         <v>19</v>
@@ -3377,16 +3410,16 @@
     </row>
     <row r="140" spans="1:8">
       <c r="B140" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="C140" t="n">
-        <v>3.714</v>
+        <v>3.462</v>
       </c>
       <c r="D140" t="s">
-        <v>93</v>
+        <v>265</v>
       </c>
       <c r="E140" t="s">
-        <v>94</v>
+        <v>266</v>
       </c>
       <c r="F140" t="s">
         <v>19</v>
@@ -3400,21 +3433,21 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="B143" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="C143" t="n">
-        <v>3.571</v>
+        <v>3.714</v>
       </c>
       <c r="D143" t="s">
-        <v>266</v>
+        <v>93</v>
       </c>
       <c r="E143" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F143" t="s">
         <v>19</v>
@@ -3428,21 +3461,21 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="B146" t="s">
-        <v>151</v>
+        <v>232</v>
       </c>
       <c r="C146" t="n">
-        <v>4</v>
+        <v>3.571</v>
       </c>
       <c r="D146" t="s">
-        <v>87</v>
+        <v>269</v>
       </c>
       <c r="E146" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="F146" t="s">
         <v>19</v>
@@ -3456,21 +3489,21 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="B149" t="s">
-        <v>258</v>
+        <v>155</v>
       </c>
       <c r="C149" t="n">
-        <v>3.923</v>
+        <v>4</v>
       </c>
       <c r="D149" t="s">
-        <v>269</v>
+        <v>87</v>
       </c>
       <c r="E149" t="s">
-        <v>270</v>
+        <v>19</v>
       </c>
       <c r="F149" t="s">
         <v>19</v>
@@ -3489,264 +3522,264 @@
     </row>
     <row r="152" spans="1:8">
       <c r="B152" t="s">
-        <v>139</v>
+        <v>261</v>
       </c>
       <c r="C152" t="n">
-        <v>3.556</v>
+        <v>3.923</v>
       </c>
       <c r="D152" t="s">
         <v>272</v>
       </c>
       <c r="E152" t="s">
+        <v>273</v>
+      </c>
+      <c r="F152" t="s">
+        <v>19</v>
+      </c>
+      <c r="G152" t="s">
+        <v>19</v>
+      </c>
+      <c r="H152" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="B155" t="s">
+        <v>143</v>
+      </c>
+      <c r="C155" t="n">
+        <v>3.556</v>
+      </c>
+      <c r="D155" t="s">
+        <v>275</v>
+      </c>
+      <c r="E155" t="s">
         <v>98</v>
       </c>
-      <c r="F152" t="s">
-        <v>19</v>
-      </c>
-      <c r="G152" t="s">
-        <v>19</v>
-      </c>
-      <c r="H152" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="B153" t="s">
-        <v>228</v>
-      </c>
-      <c r="C153" t="n">
+      <c r="F155" t="s">
+        <v>19</v>
+      </c>
+      <c r="G155" t="s">
+        <v>19</v>
+      </c>
+      <c r="H155" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="B156" t="s">
+        <v>232</v>
+      </c>
+      <c r="C156" t="n">
         <v>3.65</v>
       </c>
-      <c r="D153" t="s">
-        <v>273</v>
-      </c>
-      <c r="E153" t="s">
-        <v>274</v>
-      </c>
-      <c r="F153" t="s">
-        <v>19</v>
-      </c>
-      <c r="G153" t="s">
-        <v>19</v>
-      </c>
-      <c r="H153" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="B154" t="s">
-        <v>258</v>
-      </c>
-      <c r="C154" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D154" t="s">
-        <v>275</v>
-      </c>
-      <c r="E154" t="s">
+      <c r="D156" t="s">
         <v>276</v>
       </c>
-      <c r="F154" t="s">
-        <v>19</v>
-      </c>
-      <c r="G154" t="s">
-        <v>19</v>
-      </c>
-      <c r="H154" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="A156" t="s">
+      <c r="E156" t="s">
         <v>277</v>
+      </c>
+      <c r="F156" t="s">
+        <v>19</v>
+      </c>
+      <c r="G156" t="s">
+        <v>19</v>
+      </c>
+      <c r="H156" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="B157" t="s">
+        <v>261</v>
+      </c>
+      <c r="C157" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D157" t="s">
         <v>278</v>
       </c>
-      <c r="C157" t="n">
-        <v>2.6721</v>
-      </c>
-      <c r="D157" t="s">
+      <c r="E157" t="s">
         <v>279</v>
       </c>
-      <c r="E157" t="s">
+      <c r="F157" t="s">
+        <v>19</v>
+      </c>
+      <c r="G157" t="s">
+        <v>19</v>
+      </c>
+      <c r="H157" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" t="s">
         <v>280</v>
-      </c>
-      <c r="F157" t="s">
-        <v>281</v>
-      </c>
-      <c r="G157" t="s">
-        <v>282</v>
-      </c>
-      <c r="H157" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="B158" t="s">
-        <v>284</v>
-      </c>
-      <c r="C158" t="n">
-        <v>2.8529</v>
-      </c>
-      <c r="D158" t="s">
-        <v>285</v>
-      </c>
-      <c r="E158" t="s">
-        <v>286</v>
-      </c>
-      <c r="F158" t="s">
-        <v>287</v>
-      </c>
-      <c r="G158" t="s">
-        <v>288</v>
-      </c>
-      <c r="H158" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="B159" t="s">
-        <v>289</v>
-      </c>
-      <c r="C159" t="n">
-        <v>2.7187</v>
-      </c>
-      <c r="D159" t="s">
-        <v>290</v>
-      </c>
-      <c r="E159" t="s">
-        <v>291</v>
-      </c>
-      <c r="F159" t="s">
-        <v>292</v>
-      </c>
-      <c r="G159" t="s">
-        <v>293</v>
-      </c>
-      <c r="H159" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="B160" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="C160" t="n">
-        <v>2.823</v>
+        <v>2.6721</v>
       </c>
       <c r="D160" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="E160" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="F160" t="s">
-        <v>78</v>
+        <v>284</v>
       </c>
       <c r="G160" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="H160" t="s">
-        <v>19</v>
+        <v>286</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="B161" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C161" t="n">
-        <v>3.737</v>
+        <v>2.8529</v>
       </c>
       <c r="D161" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="E161" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
       <c r="F161" t="s">
-        <v>19</v>
+        <v>290</v>
       </c>
       <c r="G161" t="s">
-        <v>19</v>
+        <v>291</v>
       </c>
       <c r="H161" t="s">
-        <v>19</v>
+        <v>291</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="B162" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C162" t="n">
-        <v>2.9487</v>
+        <v>2.7187</v>
       </c>
       <c r="D162" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E162" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F162" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="G162" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H162" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="B163" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C163" t="n">
-        <v>2.6522</v>
+        <v>2.823</v>
       </c>
       <c r="D163" t="s">
-        <v>75</v>
+        <v>299</v>
       </c>
       <c r="E163" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F163" t="s">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="G163" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H163" t="s">
-        <v>309</v>
+        <v>19</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="B164" t="s">
+        <v>302</v>
+      </c>
+      <c r="C164" t="n">
+        <v>3.737</v>
+      </c>
+      <c r="D164" t="s">
+        <v>303</v>
+      </c>
+      <c r="E164" t="s">
+        <v>251</v>
+      </c>
+      <c r="F164" t="s">
+        <v>19</v>
+      </c>
+      <c r="G164" t="s">
+        <v>19</v>
+      </c>
+      <c r="H164" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="B165" t="s">
+        <v>304</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2.9487</v>
+      </c>
+      <c r="D165" t="s">
+        <v>305</v>
+      </c>
+      <c r="E165" t="s">
+        <v>306</v>
+      </c>
+      <c r="F165" t="s">
+        <v>307</v>
+      </c>
+      <c r="G165" t="s">
+        <v>297</v>
+      </c>
+      <c r="H165" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="B166" t="s">
+        <v>308</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2.6522</v>
+      </c>
+      <c r="D166" t="s">
+        <v>75</v>
+      </c>
+      <c r="E166" t="s">
+        <v>309</v>
+      </c>
+      <c r="F166" t="s">
         <v>310</v>
       </c>
-      <c r="C164" t="n">
-        <v>2.9766</v>
-      </c>
-      <c r="D164" t="s">
-        <v>247</v>
-      </c>
-      <c r="E164" t="s">
+      <c r="G166" t="s">
         <v>311</v>
       </c>
-      <c r="F164" t="s">
-        <v>186</v>
-      </c>
-      <c r="G164" t="s">
-        <v>189</v>
-      </c>
-      <c r="H164" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" t="s">
+      <c r="H166" t="s">
         <v>312</v>
       </c>
     </row>
@@ -3755,182 +3788,182 @@
         <v>313</v>
       </c>
       <c r="C167" t="n">
+        <v>2.9766</v>
+      </c>
+      <c r="D167" t="s">
+        <v>251</v>
+      </c>
+      <c r="E167" t="s">
+        <v>314</v>
+      </c>
+      <c r="F167" t="s">
+        <v>190</v>
+      </c>
+      <c r="G167" t="s">
+        <v>193</v>
+      </c>
+      <c r="H167" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="B170" t="s">
+        <v>316</v>
+      </c>
+      <c r="C170" t="n">
         <v>2.5512</v>
       </c>
-      <c r="D167" t="s">
-        <v>314</v>
-      </c>
-      <c r="E167" t="s">
-        <v>315</v>
-      </c>
-      <c r="F167" t="s">
-        <v>316</v>
-      </c>
-      <c r="G167" t="s">
+      <c r="D170" t="s">
         <v>317</v>
       </c>
-      <c r="H167" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="B168" t="s">
+      <c r="E170" t="s">
         <v>318</v>
       </c>
-      <c r="C168" t="n">
-        <v>2.8699</v>
-      </c>
-      <c r="D168" t="s">
+      <c r="F170" t="s">
         <v>319</v>
       </c>
-      <c r="E168" t="s">
+      <c r="G170" t="s">
         <v>320</v>
       </c>
-      <c r="F168" t="s">
-        <v>321</v>
-      </c>
-      <c r="G168" t="s">
-        <v>322</v>
-      </c>
-      <c r="H168" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="A170" t="s">
-        <v>324</v>
+      <c r="H170" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="B171" t="s">
+        <v>321</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2.8699</v>
+      </c>
+      <c r="D171" t="s">
+        <v>322</v>
+      </c>
+      <c r="E171" t="s">
+        <v>323</v>
+      </c>
+      <c r="F171" t="s">
+        <v>324</v>
+      </c>
+      <c r="G171" t="s">
         <v>325</v>
       </c>
-      <c r="C171" t="n">
-        <v>2.6302</v>
-      </c>
-      <c r="D171" t="s">
+      <c r="H171" t="s">
         <v>326</v>
-      </c>
-      <c r="E171" t="s">
-        <v>327</v>
-      </c>
-      <c r="F171" t="s">
-        <v>328</v>
-      </c>
-      <c r="G171" t="s">
-        <v>329</v>
-      </c>
-      <c r="H171" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="B174" t="s">
+        <v>328</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2.6302</v>
+      </c>
+      <c r="D174" t="s">
+        <v>329</v>
+      </c>
+      <c r="E174" t="s">
+        <v>330</v>
+      </c>
+      <c r="F174" t="s">
+        <v>331</v>
+      </c>
+      <c r="G174" t="s">
         <v>332</v>
       </c>
-      <c r="C174" t="n">
-        <v>2.6375</v>
-      </c>
-      <c r="D174" t="s">
+      <c r="H174" t="s">
         <v>333</v>
-      </c>
-      <c r="E174" t="s">
-        <v>334</v>
-      </c>
-      <c r="F174" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" t="s">
-        <v>335</v>
-      </c>
-      <c r="H174" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="B177" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C177" t="n">
-        <v>2.6715</v>
+        <v>2.6375</v>
       </c>
       <c r="D177" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E177" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F177" t="s">
         <v>10</v>
       </c>
       <c r="G177" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H177" t="s">
-        <v>13</v>
+        <v>339</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="B180" t="s">
+        <v>341</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2.6715</v>
+      </c>
+      <c r="D180" t="s">
+        <v>342</v>
+      </c>
+      <c r="E180" t="s">
         <v>343</v>
       </c>
-      <c r="C180" t="n">
-        <v>2.8383</v>
-      </c>
-      <c r="D180" t="s">
+      <c r="F180" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" t="s">
         <v>344</v>
       </c>
-      <c r="E180" t="s">
-        <v>345</v>
-      </c>
-      <c r="F180" t="s">
-        <v>346</v>
-      </c>
-      <c r="G180" t="s">
-        <v>347</v>
-      </c>
       <c r="H180" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="B183" t="s">
+        <v>346</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2.8383</v>
+      </c>
+      <c r="D183" t="s">
+        <v>347</v>
+      </c>
+      <c r="E183" t="s">
+        <v>348</v>
+      </c>
+      <c r="F183" t="s">
         <v>349</v>
       </c>
-      <c r="C183" t="n">
-        <v>2.8632</v>
-      </c>
-      <c r="D183" t="s">
+      <c r="G183" t="s">
         <v>350</v>
-      </c>
-      <c r="E183" t="s">
-        <v>351</v>
-      </c>
-      <c r="F183" t="s">
-        <v>352</v>
-      </c>
-      <c r="G183" t="s">
-        <v>353</v>
       </c>
       <c r="H183" t="s">
         <v>19</v>
@@ -3938,27 +3971,27 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="B186" t="s">
+        <v>352</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2.8632</v>
+      </c>
+      <c r="D186" t="s">
+        <v>353</v>
+      </c>
+      <c r="E186" t="s">
+        <v>354</v>
+      </c>
+      <c r="F186" t="s">
         <v>355</v>
       </c>
-      <c r="C186" t="n">
-        <v>3.0323</v>
-      </c>
-      <c r="D186" t="s">
-        <v>126</v>
-      </c>
-      <c r="E186" t="s">
+      <c r="G186" t="s">
         <v>356</v>
-      </c>
-      <c r="F186" t="s">
-        <v>357</v>
-      </c>
-      <c r="G186" t="s">
-        <v>13</v>
       </c>
       <c r="H186" t="s">
         <v>19</v>
@@ -3966,27 +3999,27 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="B189" t="s">
-        <v>295</v>
+        <v>358</v>
       </c>
       <c r="C189" t="n">
-        <v>2.5735</v>
+        <v>3.0323</v>
       </c>
       <c r="D189" t="s">
+        <v>130</v>
+      </c>
+      <c r="E189" t="s">
         <v>359</v>
       </c>
-      <c r="E189" t="s">
+      <c r="F189" t="s">
         <v>360</v>
       </c>
-      <c r="F189" t="s">
-        <v>361</v>
-      </c>
       <c r="G189" t="s">
-        <v>362</v>
+        <v>13</v>
       </c>
       <c r="H189" t="s">
         <v>19</v>
@@ -3994,101 +4027,101 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="B192" t="s">
+        <v>298</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2.5735</v>
+      </c>
+      <c r="D192" t="s">
+        <v>362</v>
+      </c>
+      <c r="E192" t="s">
+        <v>363</v>
+      </c>
+      <c r="F192" t="s">
         <v>364</v>
       </c>
-      <c r="C192" t="n">
+      <c r="G192" t="s">
+        <v>365</v>
+      </c>
+      <c r="H192" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="B195" t="s">
+        <v>367</v>
+      </c>
+      <c r="C195" t="n">
         <v>3</v>
       </c>
-      <c r="D192" t="s">
-        <v>365</v>
-      </c>
-      <c r="E192" t="s">
+      <c r="D195" t="s">
+        <v>368</v>
+      </c>
+      <c r="E195" t="s">
         <v>27</v>
       </c>
-      <c r="F192" t="s">
+      <c r="F195" t="s">
         <v>41</v>
       </c>
-      <c r="G192" t="s">
-        <v>366</v>
-      </c>
-      <c r="H192" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
-      <c r="B193" t="s">
-        <v>367</v>
-      </c>
-      <c r="C193" t="n">
+      <c r="G195" t="s">
+        <v>369</v>
+      </c>
+      <c r="H195" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="B196" t="s">
+        <v>370</v>
+      </c>
+      <c r="C196" t="n">
         <v>3.25</v>
       </c>
-      <c r="D193" t="s">
-        <v>368</v>
-      </c>
-      <c r="E193" t="s">
-        <v>274</v>
-      </c>
-      <c r="F193" t="s">
+      <c r="D196" t="s">
+        <v>371</v>
+      </c>
+      <c r="E196" t="s">
+        <v>277</v>
+      </c>
+      <c r="F196" t="s">
         <v>75</v>
       </c>
-      <c r="G193" t="s">
-        <v>19</v>
-      </c>
-      <c r="H193" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
-      <c r="B194" t="s">
-        <v>310</v>
-      </c>
-      <c r="C194" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D194" t="s">
-        <v>369</v>
-      </c>
-      <c r="E194" t="s">
-        <v>165</v>
-      </c>
-      <c r="F194" t="s">
-        <v>19</v>
-      </c>
-      <c r="G194" t="s">
-        <v>19</v>
-      </c>
-      <c r="H194" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="A196" t="s">
-        <v>370</v>
+      <c r="G196" t="s">
+        <v>19</v>
+      </c>
+      <c r="H196" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="B197" t="s">
-        <v>371</v>
+        <v>313</v>
       </c>
       <c r="C197" t="n">
-        <v>2.8125</v>
+        <v>3.95</v>
       </c>
       <c r="D197" t="s">
-        <v>126</v>
+        <v>372</v>
       </c>
       <c r="E197" t="s">
-        <v>274</v>
+        <v>169</v>
       </c>
       <c r="F197" t="s">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c r="G197" t="s">
-        <v>255</v>
+        <v>19</v>
       </c>
       <c r="H197" t="s">
         <v>19</v>
@@ -4096,27 +4129,27 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="B200" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C200" t="n">
-        <v>3.407</v>
+        <v>2.8125</v>
       </c>
       <c r="D200" t="s">
-        <v>374</v>
+        <v>130</v>
       </c>
       <c r="E200" t="s">
-        <v>375</v>
+        <v>277</v>
       </c>
       <c r="F200" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="G200" t="s">
-        <v>19</v>
+        <v>258</v>
       </c>
       <c r="H200" t="s">
         <v>19</v>
@@ -4124,24 +4157,24 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="B203" t="s">
+        <v>376</v>
+      </c>
+      <c r="C203" t="n">
+        <v>3.407</v>
+      </c>
+      <c r="D203" t="s">
         <v>377</v>
       </c>
-      <c r="C203" t="n">
-        <v>4</v>
-      </c>
-      <c r="D203" t="s">
-        <v>87</v>
-      </c>
       <c r="E203" t="s">
-        <v>19</v>
+        <v>378</v>
       </c>
       <c r="F203" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="G203" t="s">
         <v>19</v>
@@ -4152,108 +4185,108 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="B206" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C206" t="n">
-        <v>3.14</v>
+        <v>4</v>
       </c>
       <c r="D206" t="s">
-        <v>380</v>
+        <v>87</v>
       </c>
       <c r="E206" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="F206" t="s">
-        <v>381</v>
+        <v>19</v>
       </c>
       <c r="G206" t="s">
-        <v>382</v>
+        <v>19</v>
       </c>
       <c r="H206" t="s">
-        <v>382</v>
+        <v>19</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="B209" t="s">
+        <v>382</v>
+      </c>
+      <c r="C209" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="D209" t="s">
+        <v>383</v>
+      </c>
+      <c r="E209" t="s">
+        <v>89</v>
+      </c>
+      <c r="F209" t="s">
         <v>384</v>
       </c>
-      <c r="C209" t="n">
-        <v>2.7605</v>
-      </c>
-      <c r="D209" t="s">
+      <c r="G209" t="s">
         <v>385</v>
       </c>
-      <c r="E209" t="s">
-        <v>103</v>
-      </c>
-      <c r="F209" t="s">
-        <v>386</v>
-      </c>
-      <c r="G209" t="s">
-        <v>387</v>
-      </c>
       <c r="H209" t="s">
-        <v>105</v>
+        <v>385</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="B212" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="C212" t="n">
-        <v>3.429</v>
+        <v>2.7605</v>
       </c>
       <c r="D212" t="s">
-        <v>266</v>
+        <v>388</v>
       </c>
       <c r="E212" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F212" t="s">
-        <v>90</v>
+        <v>389</v>
       </c>
       <c r="G212" t="s">
-        <v>19</v>
+        <v>390</v>
       </c>
       <c r="H212" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="215" spans="1:8">
       <c r="B215" t="s">
-        <v>318</v>
+        <v>376</v>
       </c>
       <c r="C215" t="n">
-        <v>4</v>
+        <v>3.429</v>
       </c>
       <c r="D215" t="s">
-        <v>87</v>
+        <v>269</v>
       </c>
       <c r="E215" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="F215" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="G215" t="s">
         <v>19</v>
@@ -4264,21 +4297,21 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="218" spans="1:8">
       <c r="B218" t="s">
-        <v>391</v>
+        <v>321</v>
       </c>
       <c r="C218" t="n">
-        <v>3.765</v>
+        <v>4</v>
       </c>
       <c r="D218" t="s">
-        <v>392</v>
+        <v>87</v>
       </c>
       <c r="E218" t="s">
-        <v>393</v>
+        <v>19</v>
       </c>
       <c r="F218" t="s">
         <v>19</v>
@@ -4292,21 +4325,21 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="B221" t="s">
+        <v>394</v>
+      </c>
+      <c r="C221" t="n">
+        <v>3.765</v>
+      </c>
+      <c r="D221" t="s">
         <v>395</v>
       </c>
-      <c r="C221" t="n">
-        <v>3.696</v>
-      </c>
-      <c r="D221" t="s">
+      <c r="E221" t="s">
         <v>396</v>
-      </c>
-      <c r="E221" t="s">
-        <v>49</v>
       </c>
       <c r="F221" t="s">
         <v>19</v>
@@ -4325,16 +4358,16 @@
     </row>
     <row r="224" spans="1:8">
       <c r="B224" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="C224" t="n">
-        <v>3.6</v>
+        <v>3.696</v>
       </c>
       <c r="D224" t="s">
-        <v>254</v>
+        <v>399</v>
       </c>
       <c r="E224" t="s">
-        <v>398</v>
+        <v>49</v>
       </c>
       <c r="F224" t="s">
         <v>19</v>
@@ -4348,21 +4381,21 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="B227" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="C227" t="n">
-        <v>3.846</v>
+        <v>3.6</v>
       </c>
       <c r="D227" t="s">
-        <v>400</v>
+        <v>257</v>
       </c>
       <c r="E227" t="s">
-        <v>223</v>
+        <v>401</v>
       </c>
       <c r="F227" t="s">
         <v>19</v>
@@ -4376,21 +4409,21 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="B230" t="s">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="C230" t="n">
-        <v>4</v>
+        <v>3.846</v>
       </c>
       <c r="D230" t="s">
-        <v>87</v>
+        <v>403</v>
       </c>
       <c r="E230" t="s">
-        <v>19</v>
+        <v>227</v>
       </c>
       <c r="F230" t="s">
         <v>19</v>
@@ -4404,21 +4437,21 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="233" spans="1:8">
       <c r="B233" t="s">
-        <v>403</v>
+        <v>328</v>
       </c>
       <c r="C233" t="n">
-        <v>3.562</v>
+        <v>4</v>
       </c>
       <c r="D233" t="s">
-        <v>404</v>
+        <v>87</v>
       </c>
       <c r="E233" t="s">
-        <v>365</v>
+        <v>19</v>
       </c>
       <c r="F233" t="s">
         <v>19</v>
@@ -4437,126 +4470,126 @@
     </row>
     <row r="236" spans="1:8">
       <c r="B236" t="s">
-        <v>305</v>
+        <v>406</v>
       </c>
       <c r="C236" t="n">
+        <v>3.562</v>
+      </c>
+      <c r="D236" t="s">
+        <v>407</v>
+      </c>
+      <c r="E236" t="s">
+        <v>368</v>
+      </c>
+      <c r="F236" t="s">
+        <v>19</v>
+      </c>
+      <c r="G236" t="s">
+        <v>19</v>
+      </c>
+      <c r="H236" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="B239" t="s">
+        <v>308</v>
+      </c>
+      <c r="C239" t="n">
         <v>3.875</v>
       </c>
-      <c r="D236" t="s">
-        <v>406</v>
-      </c>
-      <c r="E236" t="s">
+      <c r="D239" t="s">
+        <v>409</v>
+      </c>
+      <c r="E239" t="s">
         <v>41</v>
       </c>
-      <c r="F236" t="s">
-        <v>19</v>
-      </c>
-      <c r="G236" t="s">
-        <v>19</v>
-      </c>
-      <c r="H236" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
-      <c r="B237" t="s">
-        <v>403</v>
-      </c>
-      <c r="C237" t="n">
-        <v>3.286</v>
-      </c>
-      <c r="D237" t="s">
-        <v>89</v>
-      </c>
-      <c r="E237" t="s">
-        <v>89</v>
-      </c>
-      <c r="F237" t="s">
-        <v>90</v>
-      </c>
-      <c r="G237" t="s">
-        <v>19</v>
-      </c>
-      <c r="H237" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
-      <c r="A239" t="s">
-        <v>407</v>
+      <c r="F239" t="s">
+        <v>19</v>
+      </c>
+      <c r="G239" t="s">
+        <v>19</v>
+      </c>
+      <c r="H239" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="240" spans="1:8">
       <c r="B240" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C240" t="n">
-        <v>2.656</v>
+        <v>3.286</v>
       </c>
       <c r="D240" t="s">
-        <v>409</v>
+        <v>89</v>
       </c>
       <c r="E240" t="s">
-        <v>410</v>
+        <v>89</v>
       </c>
       <c r="F240" t="s">
-        <v>411</v>
+        <v>90</v>
       </c>
       <c r="G240" t="s">
-        <v>412</v>
+        <v>19</v>
       </c>
       <c r="H240" t="s">
-        <v>413</v>
+        <v>19</v>
       </c>
     </row>
     <row r="242" spans="1:8">
       <c r="A242" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="243" spans="1:8">
       <c r="B243" t="s">
-        <v>313</v>
+        <v>411</v>
       </c>
       <c r="C243" t="n">
-        <v>3.824</v>
+        <v>2.656</v>
       </c>
       <c r="D243" t="s">
+        <v>412</v>
+      </c>
+      <c r="E243" t="s">
+        <v>413</v>
+      </c>
+      <c r="F243" t="s">
+        <v>414</v>
+      </c>
+      <c r="G243" t="s">
         <v>415</v>
       </c>
-      <c r="E243" t="s">
-        <v>386</v>
-      </c>
-      <c r="F243" t="s">
-        <v>19</v>
-      </c>
-      <c r="G243" t="s">
-        <v>19</v>
-      </c>
       <c r="H243" t="s">
-        <v>19</v>
+        <v>416</v>
       </c>
     </row>
     <row r="245" spans="1:8">
       <c r="A245" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="246" spans="1:8">
       <c r="B246" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="C246" t="n">
-        <v>3.45</v>
+        <v>3.824</v>
       </c>
       <c r="D246" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E246" t="s">
-        <v>274</v>
+        <v>389</v>
       </c>
       <c r="F246" t="s">
-        <v>255</v>
+        <v>19</v>
       </c>
       <c r="G246" t="s">
         <v>19</v>
@@ -4567,30 +4600,30 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="249" spans="1:8">
       <c r="B249" t="s">
-        <v>419</v>
+        <v>304</v>
       </c>
       <c r="C249" t="n">
-        <v>2</v>
+        <v>3.45</v>
       </c>
       <c r="D249" t="s">
-        <v>276</v>
+        <v>420</v>
       </c>
       <c r="E249" t="s">
-        <v>340</v>
+        <v>277</v>
       </c>
       <c r="F249" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="G249" t="s">
-        <v>276</v>
+        <v>19</v>
       </c>
       <c r="H249" t="s">
-        <v>420</v>
+        <v>19</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -4603,22 +4636,22 @@
         <v>422</v>
       </c>
       <c r="C252" t="n">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="D252" t="s">
+        <v>279</v>
+      </c>
+      <c r="E252" t="s">
+        <v>343</v>
+      </c>
+      <c r="F252" t="s">
+        <v>279</v>
+      </c>
+      <c r="G252" t="s">
+        <v>279</v>
+      </c>
+      <c r="H252" t="s">
         <v>423</v>
-      </c>
-      <c r="E252" t="s">
-        <v>126</v>
-      </c>
-      <c r="F252" t="s">
-        <v>19</v>
-      </c>
-      <c r="G252" t="s">
-        <v>19</v>
-      </c>
-      <c r="H252" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -4631,13 +4664,13 @@
         <v>425</v>
       </c>
       <c r="C255" t="n">
-        <v>3.572</v>
+        <v>3.75</v>
       </c>
       <c r="D255" t="s">
-        <v>351</v>
+        <v>426</v>
       </c>
       <c r="E255" t="s">
-        <v>426</v>
+        <v>130</v>
       </c>
       <c r="F255" t="s">
         <v>19</v>
@@ -4656,16 +4689,16 @@
     </row>
     <row r="258" spans="1:8">
       <c r="B258" t="s">
-        <v>313</v>
+        <v>428</v>
       </c>
       <c r="C258" t="n">
-        <v>3.8</v>
+        <v>3.572</v>
       </c>
       <c r="D258" t="s">
-        <v>234</v>
+        <v>354</v>
       </c>
       <c r="E258" t="s">
-        <v>75</v>
+        <v>429</v>
       </c>
       <c r="F258" t="s">
         <v>19</v>
@@ -4679,21 +4712,21 @@
     </row>
     <row r="260" spans="1:8">
       <c r="A260" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="261" spans="1:8">
       <c r="B261" t="s">
-        <v>422</v>
+        <v>316</v>
       </c>
       <c r="C261" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D261" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E261" t="s">
-        <v>398</v>
+        <v>75</v>
       </c>
       <c r="F261" t="s">
         <v>19</v>
@@ -4707,21 +4740,21 @@
     </row>
     <row r="263" spans="1:8">
       <c r="A263" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="264" spans="1:8">
       <c r="B264" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C264" t="n">
-        <v>3.944</v>
+        <v>3.6</v>
       </c>
       <c r="D264" t="s">
-        <v>431</v>
+        <v>257</v>
       </c>
       <c r="E264" t="s">
-        <v>67</v>
+        <v>401</v>
       </c>
       <c r="F264" t="s">
         <v>19</v>
@@ -4733,64 +4766,23 @@
         <v>19</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
-      <c r="B265" t="s">
+    <row r="266" spans="1:8">
+      <c r="A266" t="s">
         <v>432</v>
-      </c>
-      <c r="C265" t="n">
-        <v>4</v>
-      </c>
-      <c r="D265" t="s">
-        <v>87</v>
-      </c>
-      <c r="E265" t="s">
-        <v>19</v>
-      </c>
-      <c r="F265" t="s">
-        <v>19</v>
-      </c>
-      <c r="G265" t="s">
-        <v>19</v>
-      </c>
-      <c r="H265" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
-      <c r="B266" t="s">
-        <v>433</v>
-      </c>
-      <c r="C266" t="n">
-        <v>3.412</v>
-      </c>
-      <c r="D266" t="s">
-        <v>434</v>
-      </c>
-      <c r="E266" t="s">
-        <v>434</v>
-      </c>
-      <c r="F266" t="s">
-        <v>46</v>
-      </c>
-      <c r="G266" t="s">
-        <v>19</v>
-      </c>
-      <c r="H266" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="267" spans="1:8">
       <c r="B267" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C267" t="n">
-        <v>3.65</v>
+        <v>3.944</v>
       </c>
       <c r="D267" t="s">
-        <v>273</v>
+        <v>434</v>
       </c>
       <c r="E267" t="s">
-        <v>274</v>
+        <v>67</v>
       </c>
       <c r="F267" t="s">
         <v>19</v>
@@ -4804,7 +4796,7 @@
     </row>
     <row r="268" spans="1:8">
       <c r="B268" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="C268" t="n">
         <v>4</v>
@@ -4830,16 +4822,16 @@
         <v>436</v>
       </c>
       <c r="C269" t="n">
-        <v>4</v>
+        <v>3.412</v>
       </c>
       <c r="D269" t="s">
-        <v>87</v>
+        <v>437</v>
       </c>
       <c r="E269" t="s">
-        <v>19</v>
+        <v>437</v>
       </c>
       <c r="F269" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G269" t="s">
         <v>19</v>
@@ -4850,16 +4842,16 @@
     </row>
     <row r="270" spans="1:8">
       <c r="B270" t="s">
-        <v>202</v>
+        <v>438</v>
       </c>
       <c r="C270" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="D270" t="s">
-        <v>87</v>
+        <v>276</v>
       </c>
       <c r="E270" t="s">
-        <v>19</v>
+        <v>277</v>
       </c>
       <c r="F270" t="s">
         <v>19</v>
@@ -4873,16 +4865,16 @@
     </row>
     <row r="271" spans="1:8">
       <c r="B271" t="s">
-        <v>243</v>
+        <v>406</v>
       </c>
       <c r="C271" t="n">
-        <v>3.667</v>
+        <v>4</v>
       </c>
       <c r="D271" t="s">
-        <v>437</v>
+        <v>87</v>
       </c>
       <c r="E271" t="s">
-        <v>240</v>
+        <v>19</v>
       </c>
       <c r="F271" t="s">
         <v>19</v>
@@ -4891,12 +4883,12 @@
         <v>19</v>
       </c>
       <c r="H271" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="272" spans="1:8">
       <c r="B272" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C272" t="n">
         <v>4</v>
@@ -4919,78 +4911,119 @@
     </row>
     <row r="273" spans="1:8">
       <c r="B273" t="s">
-        <v>439</v>
+        <v>206</v>
       </c>
       <c r="C273" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D273" t="s">
-        <v>423</v>
+        <v>87</v>
       </c>
       <c r="E273" t="s">
-        <v>255</v>
+        <v>19</v>
       </c>
       <c r="F273" t="s">
-        <v>255</v>
+        <v>19</v>
       </c>
       <c r="G273" t="s">
         <v>19</v>
       </c>
       <c r="H273" t="s">
-        <v>165</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="B274" t="s">
+        <v>247</v>
+      </c>
+      <c r="C274" t="n">
+        <v>3.667</v>
+      </c>
+      <c r="D274" t="s">
+        <v>440</v>
+      </c>
+      <c r="E274" t="s">
+        <v>244</v>
+      </c>
+      <c r="F274" t="s">
+        <v>19</v>
+      </c>
+      <c r="G274" t="s">
+        <v>19</v>
+      </c>
+      <c r="H274" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="275" spans="1:8">
-      <c r="A275" t="s">
-        <v>440</v>
+      <c r="B275" t="s">
+        <v>441</v>
+      </c>
+      <c r="C275" t="n">
+        <v>4</v>
+      </c>
+      <c r="D275" t="s">
+        <v>87</v>
+      </c>
+      <c r="E275" t="s">
+        <v>19</v>
+      </c>
+      <c r="F275" t="s">
+        <v>19</v>
+      </c>
+      <c r="G275" t="s">
+        <v>19</v>
+      </c>
+      <c r="H275" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="276" spans="1:8">
       <c r="B276" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C276" t="n">
-        <v>3.582</v>
+        <v>3.5</v>
       </c>
       <c r="D276" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="E276" t="s">
-        <v>443</v>
+        <v>258</v>
       </c>
       <c r="F276" t="s">
-        <v>444</v>
+        <v>258</v>
       </c>
       <c r="G276" t="s">
-        <v>445</v>
+        <v>19</v>
       </c>
       <c r="H276" t="s">
-        <v>19</v>
+        <v>169</v>
       </c>
     </row>
     <row r="278" spans="1:8">
       <c r="A278" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="279" spans="1:8">
       <c r="B279" t="s">
-        <v>53</v>
+        <v>444</v>
       </c>
       <c r="C279" t="n">
-        <v>2.731</v>
+        <v>3.582</v>
       </c>
       <c r="D279" t="s">
+        <v>445</v>
+      </c>
+      <c r="E279" t="s">
+        <v>446</v>
+      </c>
+      <c r="F279" t="s">
         <v>447</v>
       </c>
-      <c r="E279" t="s">
+      <c r="G279" t="s">
         <v>448</v>
-      </c>
-      <c r="F279" t="s">
-        <v>449</v>
-      </c>
-      <c r="G279" t="s">
-        <v>450</v>
       </c>
       <c r="H279" t="s">
         <v>19</v>
@@ -4998,27 +5031,27 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="282" spans="1:8">
       <c r="B282" t="s">
-        <v>245</v>
+        <v>53</v>
       </c>
       <c r="C282" t="n">
-        <v>3.708</v>
+        <v>2.731</v>
       </c>
       <c r="D282" t="s">
+        <v>450</v>
+      </c>
+      <c r="E282" t="s">
+        <v>451</v>
+      </c>
+      <c r="F282" t="s">
         <v>452</v>
       </c>
-      <c r="E282" t="s">
-        <v>84</v>
-      </c>
-      <c r="F282" t="s">
-        <v>19</v>
-      </c>
       <c r="G282" t="s">
-        <v>17</v>
+        <v>453</v>
       </c>
       <c r="H282" t="s">
         <v>19</v>
@@ -5026,27 +5059,27 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="285" spans="1:8">
       <c r="B285" t="s">
-        <v>454</v>
+        <v>249</v>
       </c>
       <c r="C285" t="n">
-        <v>3.333</v>
+        <v>3.708</v>
       </c>
       <c r="D285" t="s">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="E285" t="s">
-        <v>455</v>
+        <v>84</v>
       </c>
       <c r="F285" t="s">
-        <v>456</v>
+        <v>19</v>
       </c>
       <c r="G285" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H285" t="s">
         <v>19</v>
@@ -5054,30 +5087,30 @@
     </row>
     <row r="287" spans="1:8">
       <c r="A287" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="288" spans="1:8">
       <c r="B288" t="s">
+        <v>457</v>
+      </c>
+      <c r="C288" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D288" t="s">
+        <v>401</v>
+      </c>
+      <c r="E288" t="s">
         <v>458</v>
       </c>
-      <c r="C288" t="n">
-        <v>3</v>
-      </c>
-      <c r="D288" t="s">
-        <v>404</v>
-      </c>
-      <c r="E288" t="s">
+      <c r="F288" t="s">
         <v>459</v>
       </c>
-      <c r="F288" t="s">
-        <v>366</v>
-      </c>
       <c r="G288" t="s">
-        <v>366</v>
+        <v>19</v>
       </c>
       <c r="H288" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -5087,61 +5120,61 @@
     </row>
     <row r="291" spans="1:8">
       <c r="B291" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="C291" t="n">
+        <v>3</v>
+      </c>
+      <c r="D291" t="s">
+        <v>407</v>
+      </c>
+      <c r="E291" t="s">
+        <v>462</v>
+      </c>
+      <c r="F291" t="s">
+        <v>369</v>
+      </c>
+      <c r="G291" t="s">
+        <v>369</v>
+      </c>
+      <c r="H291" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="B294" t="s">
+        <v>438</v>
+      </c>
+      <c r="C294" t="n">
         <v>3.45</v>
       </c>
-      <c r="D291" t="s">
-        <v>423</v>
-      </c>
-      <c r="E291" t="s">
-        <v>165</v>
-      </c>
-      <c r="F291" t="s">
-        <v>255</v>
-      </c>
-      <c r="G291" t="s">
-        <v>255</v>
-      </c>
-      <c r="H291" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
-      <c r="B292" t="s">
-        <v>461</v>
-      </c>
-      <c r="C292" t="n">
-        <v>3.643</v>
-      </c>
-      <c r="D292" t="s">
-        <v>462</v>
-      </c>
-      <c r="E292" t="s">
-        <v>463</v>
-      </c>
-      <c r="F292" t="s">
-        <v>90</v>
-      </c>
-      <c r="G292" t="s">
-        <v>19</v>
-      </c>
-      <c r="H292" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
-      <c r="A294" t="s">
-        <v>464</v>
+      <c r="D294" t="s">
+        <v>426</v>
+      </c>
+      <c r="E294" t="s">
+        <v>169</v>
+      </c>
+      <c r="F294" t="s">
+        <v>258</v>
+      </c>
+      <c r="G294" t="s">
+        <v>258</v>
+      </c>
+      <c r="H294" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="295" spans="1:8">
       <c r="B295" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="C295" t="n">
-        <v>3.232</v>
+        <v>3.643</v>
       </c>
       <c r="D295" t="s">
         <v>465</v>
@@ -5150,232 +5183,232 @@
         <v>466</v>
       </c>
       <c r="F295" t="s">
+        <v>90</v>
+      </c>
+      <c r="G295" t="s">
+        <v>19</v>
+      </c>
+      <c r="H295" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" t="s">
         <v>467</v>
-      </c>
-      <c r="G295" t="s">
-        <v>468</v>
-      </c>
-      <c r="H295" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
-      <c r="B296" t="s">
-        <v>469</v>
-      </c>
-      <c r="C296" t="n">
-        <v>2.809</v>
-      </c>
-      <c r="D296" t="s">
-        <v>470</v>
-      </c>
-      <c r="E296" t="s">
-        <v>471</v>
-      </c>
-      <c r="F296" t="s">
-        <v>470</v>
-      </c>
-      <c r="G296" t="s">
-        <v>472</v>
-      </c>
-      <c r="H296" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
-      <c r="B297" t="s">
-        <v>474</v>
-      </c>
-      <c r="C297" t="n">
-        <v>3.636</v>
-      </c>
-      <c r="D297" t="s">
-        <v>475</v>
-      </c>
-      <c r="E297" t="s">
-        <v>357</v>
-      </c>
-      <c r="F297" t="s">
-        <v>276</v>
-      </c>
-      <c r="G297" t="s">
-        <v>19</v>
-      </c>
-      <c r="H297" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="298" spans="1:8">
       <c r="B298" t="s">
-        <v>476</v>
+        <v>441</v>
       </c>
       <c r="C298" t="n">
-        <v>3.333</v>
+        <v>3.232</v>
       </c>
       <c r="D298" t="s">
-        <v>272</v>
+        <v>468</v>
       </c>
       <c r="E298" t="s">
-        <v>260</v>
+        <v>469</v>
       </c>
       <c r="F298" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="G298" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="H298" t="s">
-        <v>478</v>
+        <v>19</v>
       </c>
     </row>
     <row r="299" spans="1:8">
       <c r="B299" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C299" t="n">
-        <v>2.871</v>
+        <v>2.809</v>
       </c>
       <c r="D299" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="E299" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F299" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G299" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="H299" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="300" spans="1:8">
       <c r="B300" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C300" t="n">
-        <v>3.309</v>
+        <v>3.636</v>
       </c>
       <c r="D300" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="E300" t="s">
-        <v>486</v>
+        <v>360</v>
       </c>
       <c r="F300" t="s">
-        <v>487</v>
+        <v>279</v>
       </c>
       <c r="G300" t="s">
         <v>19</v>
       </c>
       <c r="H300" t="s">
-        <v>488</v>
+        <v>19</v>
       </c>
     </row>
     <row r="301" spans="1:8">
       <c r="B301" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="C301" t="n">
-        <v>2.577</v>
+        <v>3.333</v>
       </c>
       <c r="D301" t="s">
-        <v>333</v>
+        <v>275</v>
       </c>
       <c r="E301" t="s">
+        <v>263</v>
+      </c>
+      <c r="F301" t="s">
+        <v>480</v>
+      </c>
+      <c r="G301" t="s">
+        <v>481</v>
+      </c>
+      <c r="H301" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="B302" t="s">
+        <v>482</v>
+      </c>
+      <c r="C302" t="n">
+        <v>2.871</v>
+      </c>
+      <c r="D302" t="s">
+        <v>483</v>
+      </c>
+      <c r="E302" t="s">
+        <v>484</v>
+      </c>
+      <c r="F302" t="s">
+        <v>483</v>
+      </c>
+      <c r="G302" t="s">
+        <v>485</v>
+      </c>
+      <c r="H302" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="B303" t="s">
+        <v>487</v>
+      </c>
+      <c r="C303" t="n">
+        <v>3.309</v>
+      </c>
+      <c r="D303" t="s">
+        <v>488</v>
+      </c>
+      <c r="E303" t="s">
         <v>489</v>
       </c>
-      <c r="F301" t="s">
+      <c r="F303" t="s">
         <v>490</v>
       </c>
-      <c r="G301" t="s">
+      <c r="G303" t="s">
+        <v>19</v>
+      </c>
+      <c r="H303" t="s">
         <v>491</v>
-      </c>
-      <c r="H301" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
-      <c r="A303" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="304" spans="1:8">
       <c r="B304" t="s">
+        <v>464</v>
+      </c>
+      <c r="C304" t="n">
+        <v>2.577</v>
+      </c>
+      <c r="D304" t="s">
+        <v>336</v>
+      </c>
+      <c r="E304" t="s">
+        <v>492</v>
+      </c>
+      <c r="F304" t="s">
+        <v>493</v>
+      </c>
+      <c r="G304" t="s">
         <v>494</v>
       </c>
-      <c r="C304" t="n">
-        <v>3.4385</v>
-      </c>
-      <c r="D304" t="s">
-        <v>97</v>
-      </c>
-      <c r="E304" t="s">
-        <v>89</v>
-      </c>
-      <c r="F304" t="s">
-        <v>463</v>
-      </c>
-      <c r="G304" t="s">
-        <v>19</v>
-      </c>
       <c r="H304" t="s">
-        <v>19</v>
+        <v>495</v>
       </c>
     </row>
     <row r="306" spans="1:8">
       <c r="A306" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="307" spans="1:8">
       <c r="B307" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C307" t="n">
-        <v>3.071</v>
+        <v>3.5415</v>
       </c>
       <c r="D307" t="s">
-        <v>94</v>
+        <v>498</v>
       </c>
       <c r="E307" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F307" t="s">
-        <v>19</v>
+        <v>500</v>
       </c>
       <c r="G307" t="s">
-        <v>19</v>
+        <v>501</v>
       </c>
       <c r="H307" t="s">
-        <v>463</v>
+        <v>502</v>
       </c>
     </row>
     <row r="309" spans="1:8">
       <c r="A309" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
     </row>
     <row r="310" spans="1:8">
       <c r="B310" t="s">
-        <v>432</v>
+        <v>504</v>
       </c>
       <c r="C310" t="n">
-        <v>3.344</v>
+        <v>3.4385</v>
       </c>
       <c r="D310" t="s">
-        <v>499</v>
+        <v>97</v>
       </c>
       <c r="E310" t="s">
-        <v>500</v>
+        <v>89</v>
       </c>
       <c r="F310" t="s">
-        <v>366</v>
+        <v>466</v>
       </c>
       <c r="G310" t="s">
-        <v>366</v>
+        <v>19</v>
       </c>
       <c r="H310" t="s">
         <v>19</v>
@@ -5383,55 +5416,55 @@
     </row>
     <row r="312" spans="1:8">
       <c r="A312" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="313" spans="1:8">
       <c r="B313" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C313" t="n">
-        <v>3.25</v>
+        <v>3.071</v>
       </c>
       <c r="D313" t="s">
-        <v>192</v>
+        <v>94</v>
       </c>
       <c r="E313" t="s">
-        <v>97</v>
+        <v>507</v>
       </c>
       <c r="F313" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G313" t="s">
         <v>19</v>
       </c>
       <c r="H313" t="s">
-        <v>19</v>
+        <v>466</v>
       </c>
     </row>
     <row r="315" spans="1:8">
       <c r="A315" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="316" spans="1:8">
       <c r="B316" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C316" t="n">
-        <v>3.8</v>
+        <v>3.344</v>
       </c>
       <c r="D316" t="s">
-        <v>234</v>
+        <v>509</v>
       </c>
       <c r="E316" t="s">
-        <v>75</v>
+        <v>510</v>
       </c>
       <c r="F316" t="s">
-        <v>19</v>
+        <v>369</v>
       </c>
       <c r="G316" t="s">
-        <v>19</v>
+        <v>369</v>
       </c>
       <c r="H316" t="s">
         <v>19</v>
@@ -5439,24 +5472,24 @@
     </row>
     <row r="318" spans="1:8">
       <c r="A318" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="319" spans="1:8">
       <c r="B319" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="C319" t="n">
-        <v>3.231</v>
+        <v>3.25</v>
       </c>
       <c r="D319" t="s">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="E319" t="s">
-        <v>505</v>
+        <v>97</v>
       </c>
       <c r="F319" t="s">
-        <v>229</v>
+        <v>41</v>
       </c>
       <c r="G319" t="s">
         <v>19</v>
@@ -5467,21 +5500,21 @@
     </row>
     <row r="321" spans="1:8">
       <c r="A321" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
     </row>
     <row r="322" spans="1:8">
       <c r="B322" t="s">
-        <v>507</v>
+        <v>435</v>
       </c>
       <c r="C322" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D322" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E322" t="s">
-        <v>398</v>
+        <v>75</v>
       </c>
       <c r="F322" t="s">
         <v>19</v>
@@ -5495,24 +5528,24 @@
     </row>
     <row r="324" spans="1:8">
       <c r="A324" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="325" spans="1:8">
       <c r="B325" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C325" t="n">
-        <v>4</v>
+        <v>3.231</v>
       </c>
       <c r="D325" t="s">
-        <v>87</v>
+        <v>265</v>
       </c>
       <c r="E325" t="s">
-        <v>19</v>
+        <v>515</v>
       </c>
       <c r="F325" t="s">
-        <v>19</v>
+        <v>233</v>
       </c>
       <c r="G325" t="s">
         <v>19</v>
@@ -5523,21 +5556,21 @@
     </row>
     <row r="327" spans="1:8">
       <c r="A327" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="328" spans="1:8">
       <c r="B328" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C328" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D328" t="s">
-        <v>87</v>
+        <v>257</v>
       </c>
       <c r="E328" t="s">
-        <v>19</v>
+        <v>401</v>
       </c>
       <c r="F328" t="s">
         <v>19</v>
@@ -5551,80 +5584,164 @@
     </row>
     <row r="330" spans="1:8">
       <c r="A330" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="331" spans="1:8">
       <c r="B331" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="C331" t="n">
+        <v>3.111</v>
+      </c>
+      <c r="D331" t="s">
+        <v>40</v>
+      </c>
+      <c r="E331" t="s">
+        <v>98</v>
+      </c>
+      <c r="F331" t="s">
+        <v>253</v>
+      </c>
+      <c r="G331" t="s">
+        <v>19</v>
+      </c>
+      <c r="H331" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="A333" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
+      <c r="B334" t="s">
+        <v>520</v>
+      </c>
+      <c r="C334" t="n">
         <v>4</v>
       </c>
-      <c r="D331" t="s">
+      <c r="D334" t="s">
         <v>87</v>
       </c>
-      <c r="E331" t="s">
-        <v>19</v>
-      </c>
-      <c r="F331" t="s">
-        <v>19</v>
-      </c>
-      <c r="G331" t="s">
-        <v>19</v>
-      </c>
-      <c r="H331" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8">
-      <c r="B332" t="s">
-        <v>514</v>
-      </c>
-      <c r="C332" t="n">
+      <c r="E334" t="s">
+        <v>19</v>
+      </c>
+      <c r="F334" t="s">
+        <v>19</v>
+      </c>
+      <c r="G334" t="s">
+        <v>19</v>
+      </c>
+      <c r="H334" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
+      <c r="A336" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
+      <c r="B337" t="s">
+        <v>522</v>
+      </c>
+      <c r="C337" t="n">
         <v>4</v>
       </c>
-      <c r="D332" t="s">
+      <c r="D337" t="s">
         <v>87</v>
       </c>
-      <c r="E332" t="s">
-        <v>19</v>
-      </c>
-      <c r="F332" t="s">
-        <v>19</v>
-      </c>
-      <c r="G332" t="s">
-        <v>19</v>
-      </c>
-      <c r="H332" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8">
-      <c r="A334" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8">
-      <c r="B335" t="s">
-        <v>516</v>
-      </c>
-      <c r="C335" t="n">
+      <c r="E337" t="s">
+        <v>19</v>
+      </c>
+      <c r="F337" t="s">
+        <v>19</v>
+      </c>
+      <c r="G337" t="s">
+        <v>19</v>
+      </c>
+      <c r="H337" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
+      <c r="A339" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
+      <c r="B340" t="s">
+        <v>524</v>
+      </c>
+      <c r="C340" t="n">
+        <v>4</v>
+      </c>
+      <c r="D340" t="s">
+        <v>87</v>
+      </c>
+      <c r="E340" t="s">
+        <v>19</v>
+      </c>
+      <c r="F340" t="s">
+        <v>19</v>
+      </c>
+      <c r="G340" t="s">
+        <v>19</v>
+      </c>
+      <c r="H340" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
+      <c r="B341" t="s">
+        <v>525</v>
+      </c>
+      <c r="C341" t="n">
+        <v>4</v>
+      </c>
+      <c r="D341" t="s">
+        <v>87</v>
+      </c>
+      <c r="E341" t="s">
+        <v>19</v>
+      </c>
+      <c r="F341" t="s">
+        <v>19</v>
+      </c>
+      <c r="G341" t="s">
+        <v>19</v>
+      </c>
+      <c r="H341" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
+      <c r="A343" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
+      <c r="B344" t="s">
+        <v>527</v>
+      </c>
+      <c r="C344" t="n">
         <v>3.647</v>
       </c>
-      <c r="D335" t="s">
-        <v>517</v>
-      </c>
-      <c r="E335" t="s">
-        <v>518</v>
-      </c>
-      <c r="F335" t="s">
-        <v>19</v>
-      </c>
-      <c r="G335" t="s">
-        <v>19</v>
-      </c>
-      <c r="H335" t="s">
+      <c r="D344" t="s">
+        <v>528</v>
+      </c>
+      <c r="E344" t="s">
+        <v>529</v>
+      </c>
+      <c r="F344" t="s">
+        <v>19</v>
+      </c>
+      <c r="G344" t="s">
+        <v>19</v>
+      </c>
+      <c r="H344" t="s">
         <v>19</v>
       </c>
     </row>
